--- a/bank_nifty_stats_report.xlsx
+++ b/bank_nifty_stats_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,19 +479,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C2" t="n">
-        <v>38719.6</v>
+        <v>38717.55</v>
       </c>
       <c r="D2" t="n">
-        <v>38744.2</v>
+        <v>38717.55</v>
       </c>
       <c r="E2" t="n">
-        <v>38641.85</v>
+        <v>38525.95</v>
       </c>
       <c r="F2" t="n">
-        <v>38723.05</v>
+        <v>38551.9</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C3" t="n">
-        <v>38721.6</v>
+        <v>38548.85</v>
       </c>
       <c r="D3" t="n">
-        <v>38732.85</v>
+        <v>38590.7</v>
       </c>
       <c r="E3" t="n">
-        <v>38682.7</v>
+        <v>38509.7</v>
       </c>
       <c r="F3" t="n">
-        <v>38712.55</v>
+        <v>38543.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -527,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C4" t="n">
-        <v>38715.05</v>
+        <v>38541.3</v>
       </c>
       <c r="D4" t="n">
-        <v>38731</v>
+        <v>38567.55</v>
       </c>
       <c r="E4" t="n">
-        <v>38662.05</v>
+        <v>38516.55</v>
       </c>
       <c r="F4" t="n">
-        <v>38667</v>
+        <v>38538.7</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -551,19 +551,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C5" t="n">
-        <v>38673.35</v>
+        <v>38545.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38691.75</v>
+        <v>38566.45</v>
       </c>
       <c r="E5" t="n">
-        <v>38621.05</v>
+        <v>38510.95</v>
       </c>
       <c r="F5" t="n">
-        <v>38657.05</v>
+        <v>38544.4</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -575,25 +575,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C6" t="n">
-        <v>38655.85</v>
+        <v>38548</v>
       </c>
       <c r="D6" t="n">
-        <v>38670.2</v>
+        <v>38589</v>
       </c>
       <c r="E6" t="n">
-        <v>38640.3</v>
+        <v>38527.2</v>
       </c>
       <c r="F6" t="n">
-        <v>38670.2</v>
+        <v>38583.8</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>38685.97000000001</v>
+        <v>38552.46</v>
       </c>
     </row>
     <row r="7">
@@ -601,25 +601,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C7" t="n">
-        <v>38666.5</v>
+        <v>38582.2</v>
       </c>
       <c r="D7" t="n">
-        <v>38767.45</v>
+        <v>38631.8</v>
       </c>
       <c r="E7" t="n">
-        <v>38650.65</v>
+        <v>38571.5</v>
       </c>
       <c r="F7" t="n">
-        <v>38754.65</v>
+        <v>38627.2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38708.86333333334</v>
+        <v>38577.37333333334</v>
       </c>
     </row>
     <row r="8">
@@ -627,25 +627,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C8" t="n">
-        <v>38761.1</v>
+        <v>38632.25</v>
       </c>
       <c r="D8" t="n">
-        <v>38780.95</v>
+        <v>38665.7</v>
       </c>
       <c r="E8" t="n">
-        <v>38725.3</v>
+        <v>38620.65</v>
       </c>
       <c r="F8" t="n">
-        <v>38756.25</v>
+        <v>38653.35</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>38724.65888888889</v>
+        <v>38602.6988888889</v>
       </c>
     </row>
     <row r="9">
@@ -653,25 +653,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C9" t="n">
-        <v>38750.1</v>
+        <v>38653.95</v>
       </c>
       <c r="D9" t="n">
-        <v>38752.8</v>
+        <v>38658.25</v>
       </c>
       <c r="E9" t="n">
-        <v>38718.5</v>
+        <v>38614.75</v>
       </c>
       <c r="F9" t="n">
-        <v>38750.35</v>
+        <v>38634.9</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38733.2225925926</v>
+        <v>38613.4325925926</v>
       </c>
     </row>
     <row r="10">
@@ -679,25 +679,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C10" t="n">
-        <v>38747.8</v>
+        <v>38630.8</v>
       </c>
       <c r="D10" t="n">
-        <v>38791.35</v>
+        <v>38635.45</v>
       </c>
       <c r="E10" t="n">
-        <v>38747.8</v>
+        <v>38582.05</v>
       </c>
       <c r="F10" t="n">
-        <v>38780.4</v>
+        <v>38604.15</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>38748.94839506174</v>
+        <v>38610.33839506173</v>
       </c>
     </row>
     <row r="11">
@@ -705,25 +705,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C11" t="n">
-        <v>38781.85</v>
+        <v>38603.35</v>
       </c>
       <c r="D11" t="n">
-        <v>38792.15</v>
+        <v>38604.95</v>
       </c>
       <c r="E11" t="n">
-        <v>38725.4</v>
+        <v>38518.6</v>
       </c>
       <c r="F11" t="n">
-        <v>38725.4</v>
+        <v>38524.85</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>38741.09893004116</v>
+        <v>38581.84226337448</v>
       </c>
     </row>
     <row r="12">
@@ -731,25 +731,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C12" t="n">
-        <v>38715.75</v>
+        <v>38521.65</v>
       </c>
       <c r="D12" t="n">
-        <v>38814.2</v>
+        <v>38546.5</v>
       </c>
       <c r="E12" t="n">
-        <v>38715.75</v>
+        <v>38476.15</v>
       </c>
       <c r="F12" t="n">
-        <v>38792.2</v>
+        <v>38479.15</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>38758.13262002744</v>
+        <v>38547.61150891633</v>
       </c>
     </row>
     <row r="13">
@@ -757,25 +757,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C13" t="n">
-        <v>38787.75</v>
+        <v>38474.6</v>
       </c>
       <c r="D13" t="n">
-        <v>38806.05</v>
+        <v>38503.5</v>
       </c>
       <c r="E13" t="n">
-        <v>38781.95</v>
+        <v>38417.5</v>
       </c>
       <c r="F13" t="n">
-        <v>38790.8</v>
+        <v>38438.75</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38769.02174668496</v>
+        <v>38511.32433927755</v>
       </c>
     </row>
     <row r="14">
@@ -783,25 +783,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C14" t="n">
-        <v>38789.9</v>
+        <v>38438.85</v>
       </c>
       <c r="D14" t="n">
-        <v>38838.95</v>
+        <v>38499.15</v>
       </c>
       <c r="E14" t="n">
-        <v>38761.25</v>
+        <v>38426.95</v>
       </c>
       <c r="F14" t="n">
-        <v>38794.1</v>
+        <v>38462.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>38777.38116445664</v>
+        <v>38495.04955951837</v>
       </c>
     </row>
     <row r="15">
@@ -809,25 +809,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C15" t="n">
-        <v>38793.4</v>
+        <v>38462.35</v>
       </c>
       <c r="D15" t="n">
-        <v>38812</v>
+        <v>38488.9</v>
       </c>
       <c r="E15" t="n">
-        <v>38770.4</v>
+        <v>38449.25</v>
       </c>
       <c r="F15" t="n">
-        <v>38811.3</v>
+        <v>38477.15</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>38788.6874429711</v>
+        <v>38489.08303967892</v>
       </c>
     </row>
     <row r="16">
@@ -835,25 +835,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C16" t="n">
-        <v>38804.7</v>
+        <v>38475.15</v>
       </c>
       <c r="D16" t="n">
-        <v>38848.8</v>
+        <v>38496.55</v>
       </c>
       <c r="E16" t="n">
-        <v>38804.7</v>
+        <v>38455.3</v>
       </c>
       <c r="F16" t="n">
-        <v>38840.6</v>
+        <v>38458.15</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38805.9916286474</v>
+        <v>38478.77202645262</v>
       </c>
     </row>
     <row r="17">
@@ -861,25 +861,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C17" t="n">
-        <v>38838.2</v>
+        <v>38457.95</v>
       </c>
       <c r="D17" t="n">
-        <v>38846.25</v>
+        <v>38470</v>
       </c>
       <c r="E17" t="n">
-        <v>38818.35</v>
+        <v>38436.4</v>
       </c>
       <c r="F17" t="n">
-        <v>38827.8</v>
+        <v>38470</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>38813.26108576494</v>
+        <v>38475.84801763509</v>
       </c>
     </row>
     <row r="18">
@@ -887,25 +887,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C18" t="n">
-        <v>38826.15</v>
+        <v>38467.25</v>
       </c>
       <c r="D18" t="n">
-        <v>38830.8</v>
+        <v>38468.2</v>
       </c>
       <c r="E18" t="n">
-        <v>38779.7</v>
+        <v>38405.55</v>
       </c>
       <c r="F18" t="n">
-        <v>38788.9</v>
+        <v>38427.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>38805.14072384329</v>
+        <v>38459.6986784234</v>
       </c>
     </row>
     <row r="19">
@@ -913,25 +913,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C19" t="n">
-        <v>38785.3</v>
+        <v>38428</v>
       </c>
       <c r="D19" t="n">
-        <v>38814.85</v>
+        <v>38475.9</v>
       </c>
       <c r="E19" t="n">
-        <v>38777.3</v>
+        <v>38405.85</v>
       </c>
       <c r="F19" t="n">
-        <v>38814.85</v>
+        <v>38472.3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>38808.37714922887</v>
+        <v>38463.89911894893</v>
       </c>
     </row>
     <row r="20">
@@ -939,25 +939,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C20" t="n">
-        <v>38815.1</v>
+        <v>38469.25</v>
       </c>
       <c r="D20" t="n">
-        <v>38821.25</v>
+        <v>38532.25</v>
       </c>
       <c r="E20" t="n">
-        <v>38770.35</v>
+        <v>38465.2</v>
       </c>
       <c r="F20" t="n">
-        <v>38773.5</v>
+        <v>38504.35</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>38796.75143281925</v>
+        <v>38477.38274596595</v>
       </c>
     </row>
     <row r="21">
@@ -965,25 +965,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C21" t="n">
-        <v>38773.7</v>
+        <v>38503.55</v>
       </c>
       <c r="D21" t="n">
-        <v>38802.35</v>
+        <v>38536</v>
       </c>
       <c r="E21" t="n">
-        <v>38756.1</v>
+        <v>38499.2</v>
       </c>
       <c r="F21" t="n">
-        <v>38772.7</v>
+        <v>38536</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>38788.73428854617</v>
+        <v>38496.92183064397</v>
       </c>
     </row>
     <row r="22">
@@ -991,25 +991,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C22" t="n">
-        <v>38770.95</v>
+        <v>38534.85</v>
       </c>
       <c r="D22" t="n">
-        <v>38800.4</v>
+        <v>38567.45</v>
       </c>
       <c r="E22" t="n">
-        <v>38761.2</v>
+        <v>38524.95</v>
       </c>
       <c r="F22" t="n">
-        <v>38791.4</v>
+        <v>38529.45</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38789.62285903079</v>
+        <v>38507.76455376265</v>
       </c>
     </row>
     <row r="23">
@@ -1017,25 +1017,25 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C23" t="n">
-        <v>38794</v>
+        <v>38529.1</v>
       </c>
       <c r="D23" t="n">
-        <v>38794</v>
+        <v>38536.3</v>
       </c>
       <c r="E23" t="n">
-        <v>38742.25</v>
+        <v>38517.2</v>
       </c>
       <c r="F23" t="n">
-        <v>38763.8</v>
+        <v>38525.5</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>38781.01523935386</v>
+        <v>38513.6763691751</v>
       </c>
     </row>
     <row r="24">
@@ -1043,25 +1043,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C24" t="n">
-        <v>38760.65</v>
+        <v>38525.85</v>
       </c>
       <c r="D24" t="n">
-        <v>38777.5</v>
+        <v>38546.45</v>
       </c>
       <c r="E24" t="n">
-        <v>38744.25</v>
+        <v>38518.1</v>
       </c>
       <c r="F24" t="n">
-        <v>38757.75</v>
+        <v>38522.15</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>38773.26015956924</v>
+        <v>38516.50091278341</v>
       </c>
     </row>
     <row r="25">
@@ -1069,25 +1069,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C25" t="n">
-        <v>38760.7</v>
+        <v>38520.6</v>
       </c>
       <c r="D25" t="n">
-        <v>38770.2</v>
+        <v>38532.25</v>
       </c>
       <c r="E25" t="n">
-        <v>38744.55</v>
+        <v>38502.95</v>
       </c>
       <c r="F25" t="n">
-        <v>38766.45</v>
+        <v>38518.3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>38770.9901063795</v>
+        <v>38517.10060852228</v>
       </c>
     </row>
     <row r="26">
@@ -1095,25 +1095,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C26" t="n">
-        <v>38764.3</v>
+        <v>38520.15</v>
       </c>
       <c r="D26" t="n">
-        <v>38794.95</v>
+        <v>38527.65</v>
       </c>
       <c r="E26" t="n">
-        <v>38735.95</v>
+        <v>38504.55</v>
       </c>
       <c r="F26" t="n">
-        <v>38737.8</v>
+        <v>38515.05</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>38759.92673758633</v>
+        <v>38516.41707234819</v>
       </c>
     </row>
     <row r="27">
@@ -1121,25 +1121,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C27" t="n">
-        <v>38734.25</v>
+        <v>38519.15</v>
       </c>
       <c r="D27" t="n">
-        <v>38742.05</v>
+        <v>38529.5</v>
       </c>
       <c r="E27" t="n">
-        <v>38704.9</v>
+        <v>38510.25</v>
       </c>
       <c r="F27" t="n">
-        <v>38712.1</v>
+        <v>38521.7</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>38743.98449172423</v>
+        <v>38518.17804823213</v>
       </c>
     </row>
     <row r="28">
@@ -1147,25 +1147,25 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C28" t="n">
-        <v>38710.7</v>
+        <v>38520.65</v>
       </c>
       <c r="D28" t="n">
-        <v>38729.05</v>
+        <v>38536.35</v>
       </c>
       <c r="E28" t="n">
-        <v>38701.8</v>
+        <v>38515.4</v>
       </c>
       <c r="F28" t="n">
-        <v>38721.75</v>
+        <v>38518.3</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>38736.57299448282</v>
+        <v>38518.21869882142</v>
       </c>
     </row>
     <row r="29">
@@ -1173,25 +1173,25 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C29" t="n">
-        <v>38725.15</v>
+        <v>38513.4</v>
       </c>
       <c r="D29" t="n">
-        <v>38760.25</v>
+        <v>38524.9</v>
       </c>
       <c r="E29" t="n">
-        <v>38718.1</v>
+        <v>38481.8</v>
       </c>
       <c r="F29" t="n">
-        <v>38759.5</v>
+        <v>38486.7</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>38744.21532965521</v>
+        <v>38507.71246588095</v>
       </c>
     </row>
     <row r="30">
@@ -1199,25 +1199,25 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C30" t="n">
-        <v>38759.15</v>
+        <v>38489.5</v>
       </c>
       <c r="D30" t="n">
-        <v>38777.25</v>
+        <v>38519.1</v>
       </c>
       <c r="E30" t="n">
-        <v>38747.9</v>
+        <v>38480.5</v>
       </c>
       <c r="F30" t="n">
-        <v>38753.9</v>
+        <v>38519.1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>38747.44355310348</v>
+        <v>38511.5083105873</v>
       </c>
     </row>
     <row r="31">
@@ -1225,25 +1225,25 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C31" t="n">
-        <v>38753.9</v>
+        <v>38517.05</v>
       </c>
       <c r="D31" t="n">
-        <v>38774.75</v>
+        <v>38552.85</v>
       </c>
       <c r="E31" t="n">
-        <v>38744.15</v>
+        <v>38517.05</v>
       </c>
       <c r="F31" t="n">
-        <v>38769.75</v>
+        <v>38541.2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>38754.87903540232</v>
+        <v>38521.40554039153</v>
       </c>
     </row>
     <row r="32">
@@ -1251,25 +1251,25 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C32" t="n">
-        <v>38769.5</v>
+        <v>38536.8</v>
       </c>
       <c r="D32" t="n">
-        <v>38773.95</v>
+        <v>38541.05</v>
       </c>
       <c r="E32" t="n">
-        <v>38743.85</v>
+        <v>38518.65</v>
       </c>
       <c r="F32" t="n">
-        <v>38752.2</v>
+        <v>38533.55</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>38753.98602360155</v>
+        <v>38525.45369359436</v>
       </c>
     </row>
     <row r="33">
@@ -1277,25 +1277,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C33" t="n">
-        <v>38750.25</v>
+        <v>38532.45</v>
       </c>
       <c r="D33" t="n">
-        <v>38760.95</v>
+        <v>38572.3</v>
       </c>
       <c r="E33" t="n">
-        <v>38741.2</v>
+        <v>38527.7</v>
       </c>
       <c r="F33" t="n">
-        <v>38749.1</v>
+        <v>38571.9</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>38752.3573490677</v>
+        <v>38540.93579572957</v>
       </c>
     </row>
     <row r="34">
@@ -1303,25 +1303,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C34" t="n">
-        <v>38750.6</v>
+        <v>38571.8</v>
       </c>
       <c r="D34" t="n">
-        <v>38760.3</v>
+        <v>38576.4</v>
       </c>
       <c r="E34" t="n">
-        <v>38737.1</v>
+        <v>38545.15</v>
       </c>
       <c r="F34" t="n">
-        <v>38749.95</v>
+        <v>38545.5</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>38751.55489937847</v>
+        <v>38542.45719715305</v>
       </c>
     </row>
     <row r="35">
@@ -1329,25 +1329,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C35" t="n">
-        <v>38749.8</v>
+        <v>38544.6</v>
       </c>
       <c r="D35" t="n">
-        <v>38753.55</v>
+        <v>38557.8</v>
       </c>
       <c r="E35" t="n">
-        <v>38730.55</v>
+        <v>38523.55</v>
       </c>
       <c r="F35" t="n">
-        <v>38735.65</v>
+        <v>38551</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>38746.25326625232</v>
+        <v>38545.30479810204</v>
       </c>
     </row>
     <row r="36">
@@ -1355,25 +1355,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C36" t="n">
-        <v>38735.25</v>
+        <v>38552.3</v>
       </c>
       <c r="D36" t="n">
-        <v>38741.45</v>
+        <v>38559.15</v>
       </c>
       <c r="E36" t="n">
-        <v>38714.6</v>
+        <v>38531.8</v>
       </c>
       <c r="F36" t="n">
-        <v>38741.45</v>
+        <v>38534.8</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>38744.65217750154</v>
+        <v>38541.80319873469</v>
       </c>
     </row>
     <row r="37">
@@ -1381,25 +1381,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C37" t="n">
-        <v>38742.35</v>
+        <v>38533.85</v>
       </c>
       <c r="D37" t="n">
-        <v>38788.1</v>
+        <v>38553.65</v>
       </c>
       <c r="E37" t="n">
-        <v>38719.5</v>
+        <v>38522.5</v>
       </c>
       <c r="F37" t="n">
-        <v>38719.8</v>
+        <v>38544.5</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>38736.36811833437</v>
+        <v>38542.70213248979</v>
       </c>
     </row>
     <row r="38">
@@ -1407,25 +1407,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C38" t="n">
-        <v>38718.75</v>
+        <v>38549.25</v>
       </c>
       <c r="D38" t="n">
-        <v>38738.35</v>
+        <v>38559.6</v>
       </c>
       <c r="E38" t="n">
-        <v>38715.75</v>
+        <v>38535.95</v>
       </c>
       <c r="F38" t="n">
-        <v>38735.65</v>
+        <v>38538.3</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>38736.12874555625</v>
+        <v>38541.2347549932</v>
       </c>
     </row>
     <row r="39">
@@ -1433,25 +1433,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C39" t="n">
-        <v>38734.15</v>
+        <v>38537.1</v>
       </c>
       <c r="D39" t="n">
-        <v>38749.05</v>
+        <v>38538.9</v>
       </c>
       <c r="E39" t="n">
-        <v>38709.65</v>
+        <v>38492.45</v>
       </c>
       <c r="F39" t="n">
-        <v>38723.5</v>
+        <v>38498.55</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>38731.91916370417</v>
+        <v>38527.0065033288</v>
       </c>
     </row>
     <row r="40">
@@ -1459,25 +1459,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C40" t="n">
-        <v>38725.25</v>
+        <v>38502.45</v>
       </c>
       <c r="D40" t="n">
-        <v>38747.2</v>
+        <v>38518.85</v>
       </c>
       <c r="E40" t="n">
-        <v>38721</v>
+        <v>38478.55</v>
       </c>
       <c r="F40" t="n">
-        <v>38730.55</v>
+        <v>38481.6</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>38731.46277580278</v>
+        <v>38511.8710022192</v>
       </c>
     </row>
     <row r="41">
@@ -1485,25 +1485,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C41" t="n">
-        <v>38732.2</v>
+        <v>38478.85</v>
       </c>
       <c r="D41" t="n">
-        <v>38750.45</v>
+        <v>38488.15</v>
       </c>
       <c r="E41" t="n">
-        <v>38726.7</v>
+        <v>38454.95</v>
       </c>
       <c r="F41" t="n">
-        <v>38750</v>
+        <v>38464.65</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>38737.64185053519</v>
+        <v>38496.13066814614</v>
       </c>
     </row>
     <row r="42">
@@ -1511,25 +1511,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C42" t="n">
-        <v>38752.35</v>
+        <v>38466.55</v>
       </c>
       <c r="D42" t="n">
-        <v>38772.6</v>
+        <v>38473.15</v>
       </c>
       <c r="E42" t="n">
-        <v>38747.45</v>
+        <v>38434.05</v>
       </c>
       <c r="F42" t="n">
-        <v>38768.6</v>
+        <v>38445.25</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>38747.96123369013</v>
+        <v>38479.17044543076</v>
       </c>
     </row>
     <row r="43">
@@ -1537,25 +1537,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C43" t="n">
-        <v>38763.9</v>
+        <v>38446.15</v>
       </c>
       <c r="D43" t="n">
-        <v>38785.55</v>
+        <v>38484.95</v>
       </c>
       <c r="E43" t="n">
-        <v>38755.75</v>
+        <v>38439.05</v>
       </c>
       <c r="F43" t="n">
-        <v>38776.9</v>
+        <v>38469.35</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>38757.60748912676</v>
+        <v>38475.89696362051</v>
       </c>
     </row>
     <row r="44">
@@ -1563,25 +1563,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C44" t="n">
-        <v>38773.75</v>
+        <v>38468.95</v>
       </c>
       <c r="D44" t="n">
-        <v>38778.9</v>
+        <v>38499.35</v>
       </c>
       <c r="E44" t="n">
-        <v>38766.9</v>
+        <v>38442.65</v>
       </c>
       <c r="F44" t="n">
-        <v>38771.35</v>
+        <v>38457.45</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>38762.18832608451</v>
+        <v>38469.74797574701</v>
       </c>
     </row>
     <row r="45">
@@ -1589,25 +1589,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C45" t="n">
-        <v>38767.25</v>
+        <v>38457.05</v>
       </c>
       <c r="D45" t="n">
-        <v>38786.25</v>
+        <v>38465.75</v>
       </c>
       <c r="E45" t="n">
-        <v>38765.55</v>
+        <v>38435.4</v>
       </c>
       <c r="F45" t="n">
-        <v>38776.5</v>
+        <v>38455.45</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>38766.95888405634</v>
+        <v>38464.98198383134</v>
       </c>
     </row>
     <row r="46">
@@ -1615,25 +1615,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C46" t="n">
-        <v>38775.6</v>
+        <v>38452</v>
       </c>
       <c r="D46" t="n">
-        <v>38783.75</v>
+        <v>38472.3</v>
       </c>
       <c r="E46" t="n">
-        <v>38760.15</v>
+        <v>38433.6</v>
       </c>
       <c r="F46" t="n">
-        <v>38772.75</v>
+        <v>38456.95</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>38768.88925603756</v>
+        <v>38462.30465588756</v>
       </c>
     </row>
     <row r="47">
@@ -1641,25 +1641,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C47" t="n">
-        <v>38771.25</v>
+        <v>38457.8</v>
       </c>
       <c r="D47" t="n">
-        <v>38782.6</v>
+        <v>38466.3</v>
       </c>
       <c r="E47" t="n">
-        <v>38766.5</v>
+        <v>38445</v>
       </c>
       <c r="F47" t="n">
-        <v>38777.4</v>
+        <v>38452.5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>38771.72617069171</v>
+        <v>38459.03643725838</v>
       </c>
     </row>
     <row r="48">
@@ -1667,25 +1667,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C48" t="n">
-        <v>38781</v>
+        <v>38453.95</v>
       </c>
       <c r="D48" t="n">
-        <v>38781.9</v>
+        <v>38461.35</v>
       </c>
       <c r="E48" t="n">
-        <v>38762.75</v>
+        <v>38418.2</v>
       </c>
       <c r="F48" t="n">
-        <v>38781.55</v>
+        <v>38441.65</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>38775.00078046114</v>
+        <v>38453.24095817225</v>
       </c>
     </row>
     <row r="49">
@@ -1693,25 +1693,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C49" t="n">
-        <v>38798.8</v>
+        <v>38442.4</v>
       </c>
       <c r="D49" t="n">
-        <v>38800.1</v>
+        <v>38476.75</v>
       </c>
       <c r="E49" t="n">
-        <v>38776.2</v>
+        <v>38436.95</v>
       </c>
       <c r="F49" t="n">
-        <v>38788.9</v>
+        <v>38458.25</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>38779.63385364076</v>
+        <v>38454.9106387815</v>
       </c>
     </row>
     <row r="50">
@@ -1719,25 +1719,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C50" t="n">
-        <v>38786.75</v>
+        <v>38462.35</v>
       </c>
       <c r="D50" t="n">
-        <v>38790.65</v>
+        <v>38463.8</v>
       </c>
       <c r="E50" t="n">
-        <v>38716.6</v>
+        <v>38428.65</v>
       </c>
       <c r="F50" t="n">
-        <v>38737.35</v>
+        <v>38446.65</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>38765.53923576051</v>
+        <v>38452.157092521</v>
       </c>
     </row>
     <row r="51">
@@ -1745,25 +1745,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C51" t="n">
-        <v>38730.7</v>
+        <v>38445.25</v>
       </c>
       <c r="D51" t="n">
-        <v>38756.35</v>
+        <v>38448.2</v>
       </c>
       <c r="E51" t="n">
-        <v>38723.65</v>
+        <v>38398.05</v>
       </c>
       <c r="F51" t="n">
-        <v>38749.95</v>
+        <v>38404.45</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>38760.34282384034</v>
+        <v>38436.25472834734</v>
       </c>
     </row>
     <row r="52">
@@ -1771,25 +1771,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C52" t="n">
-        <v>38750.55</v>
+        <v>38405.1</v>
       </c>
       <c r="D52" t="n">
-        <v>38750.55</v>
+        <v>38422.15</v>
       </c>
       <c r="E52" t="n">
-        <v>38724.55</v>
+        <v>38378.4</v>
       </c>
       <c r="F52" t="n">
-        <v>38729.15</v>
+        <v>38402.7</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>38749.94521589356</v>
+        <v>38425.06981889823</v>
       </c>
     </row>
     <row r="53">
@@ -1797,25 +1797,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C53" t="n">
-        <v>38727.05</v>
+        <v>38397.95</v>
       </c>
       <c r="D53" t="n">
-        <v>38757.55</v>
+        <v>38459.2</v>
       </c>
       <c r="E53" t="n">
-        <v>38724.3</v>
+        <v>38397.95</v>
       </c>
       <c r="F53" t="n">
-        <v>38756.2</v>
+        <v>38457.5</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>38752.03014392904</v>
+        <v>38435.87987926549</v>
       </c>
     </row>
     <row r="54">
@@ -1823,25 +1823,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C54" t="n">
-        <v>38754.4</v>
+        <v>38455.75</v>
       </c>
       <c r="D54" t="n">
-        <v>38784.4</v>
+        <v>38493.2</v>
       </c>
       <c r="E54" t="n">
-        <v>38754.4</v>
+        <v>38454.55</v>
       </c>
       <c r="F54" t="n">
-        <v>38773.5</v>
+        <v>38477.45</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>38759.18676261936</v>
+        <v>38449.73658617699</v>
       </c>
     </row>
     <row r="55">
@@ -1849,25 +1849,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C55" t="n">
-        <v>38773.9</v>
+        <v>38473.45</v>
       </c>
       <c r="D55" t="n">
-        <v>38781.75</v>
+        <v>38493.05</v>
       </c>
       <c r="E55" t="n">
-        <v>38751.7</v>
+        <v>38471.9</v>
       </c>
       <c r="F55" t="n">
-        <v>38764.85</v>
+        <v>38491.25</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>38761.07450841291</v>
+        <v>38463.57439078466</v>
       </c>
     </row>
     <row r="56">
@@ -1875,25 +1875,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C56" t="n">
-        <v>38765.5</v>
+        <v>38489.95</v>
       </c>
       <c r="D56" t="n">
-        <v>38766.35</v>
+        <v>38504.3</v>
       </c>
       <c r="E56" t="n">
-        <v>38726.95</v>
+        <v>38460.45</v>
       </c>
       <c r="F56" t="n">
-        <v>38737.7</v>
+        <v>38466.3</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>38753.28300560861</v>
+        <v>38464.48292718978</v>
       </c>
     </row>
     <row r="57">
@@ -1901,25 +1901,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C57" t="n">
-        <v>38738.75</v>
+        <v>38468.4</v>
       </c>
       <c r="D57" t="n">
-        <v>38749.35</v>
+        <v>38482.25</v>
       </c>
       <c r="E57" t="n">
-        <v>38719.9</v>
+        <v>38453.9</v>
       </c>
       <c r="F57" t="n">
-        <v>38727.4</v>
+        <v>38472.3</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>38744.65533707241</v>
+        <v>38467.08861812652</v>
       </c>
     </row>
     <row r="58">
@@ -1927,25 +1927,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C58" t="n">
-        <v>38727.15</v>
+        <v>38473.85</v>
       </c>
       <c r="D58" t="n">
-        <v>38727.35</v>
+        <v>38481.15</v>
       </c>
       <c r="E58" t="n">
-        <v>38623.6</v>
+        <v>38459.15</v>
       </c>
       <c r="F58" t="n">
-        <v>38672.3</v>
+        <v>38475.8</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>38720.53689138161</v>
+        <v>38469.99241208435</v>
       </c>
     </row>
     <row r="59">
@@ -1953,25 +1953,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C59" t="n">
-        <v>38672</v>
+        <v>38474.95</v>
       </c>
       <c r="D59" t="n">
-        <v>38674.65</v>
+        <v>38528.6</v>
       </c>
       <c r="E59" t="n">
-        <v>38652.4</v>
+        <v>38472.05</v>
       </c>
       <c r="F59" t="n">
-        <v>38655.2</v>
+        <v>38512.75</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>38698.75792758774</v>
+        <v>38484.24494138957</v>
       </c>
     </row>
     <row r="60">
@@ -1979,25 +1979,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C60" t="n">
-        <v>38656.4</v>
+        <v>38515.2</v>
       </c>
       <c r="D60" t="n">
-        <v>38671</v>
+        <v>38516.5</v>
       </c>
       <c r="E60" t="n">
-        <v>38624.25</v>
+        <v>38481.1</v>
       </c>
       <c r="F60" t="n">
-        <v>38656.35</v>
+        <v>38490.4</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>38684.62195172516</v>
+        <v>38486.29662759304</v>
       </c>
     </row>
     <row r="61">
@@ -2005,25 +2005,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C61" t="n">
-        <v>38650.35</v>
+        <v>38491.1</v>
       </c>
       <c r="D61" t="n">
-        <v>38671.7</v>
+        <v>38492.1</v>
       </c>
       <c r="E61" t="n">
-        <v>38640.1</v>
+        <v>38416.8</v>
       </c>
       <c r="F61" t="n">
-        <v>38647.45</v>
+        <v>38423.95</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>38672.23130115011</v>
+        <v>38465.51441839537</v>
       </c>
     </row>
     <row r="62">
@@ -2031,25 +2031,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C62" t="n">
-        <v>38645.85</v>
+        <v>38424.9</v>
       </c>
       <c r="D62" t="n">
-        <v>38716.5</v>
+        <v>38447.25</v>
       </c>
       <c r="E62" t="n">
-        <v>38611.6</v>
+        <v>38419.4</v>
       </c>
       <c r="F62" t="n">
-        <v>38712.1</v>
+        <v>38434.7</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>38685.52086743341</v>
+        <v>38455.24294559691</v>
       </c>
     </row>
     <row r="63">
@@ -2057,25 +2057,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C63" t="n">
-        <v>38714.95</v>
+        <v>38438.7</v>
       </c>
       <c r="D63" t="n">
-        <v>38714.95</v>
+        <v>38462.75</v>
       </c>
       <c r="E63" t="n">
-        <v>38674.05</v>
+        <v>38392.7</v>
       </c>
       <c r="F63" t="n">
-        <v>38674.05</v>
+        <v>38420.05</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>38681.69724495561</v>
+        <v>38443.51196373127</v>
       </c>
     </row>
     <row r="64">
@@ -2083,25 +2083,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C64" t="n">
-        <v>38679.3</v>
+        <v>38421.7</v>
       </c>
       <c r="D64" t="n">
-        <v>38704.2</v>
+        <v>38428.25</v>
       </c>
       <c r="E64" t="n">
-        <v>38665.2</v>
+        <v>38400.25</v>
       </c>
       <c r="F64" t="n">
-        <v>38692.7</v>
+        <v>38402.3</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>38685.36482997041</v>
+        <v>38429.77464248752</v>
       </c>
     </row>
     <row r="65">
@@ -2109,25 +2109,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C65" t="n">
-        <v>38691.6</v>
+        <v>38407.1</v>
       </c>
       <c r="D65" t="n">
-        <v>38703.05</v>
+        <v>38461.8</v>
       </c>
       <c r="E65" t="n">
-        <v>38681.7</v>
+        <v>38404.95</v>
       </c>
       <c r="F65" t="n">
-        <v>38693.75</v>
+        <v>38448.1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>38688.15988664694</v>
+        <v>38435.88309499169</v>
       </c>
     </row>
     <row r="66">
@@ -2135,25 +2135,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C66" t="n">
-        <v>38693.5</v>
+        <v>38452.65</v>
       </c>
       <c r="D66" t="n">
-        <v>38764.85</v>
+        <v>38463.2</v>
       </c>
       <c r="E66" t="n">
-        <v>38689.45</v>
+        <v>38394</v>
       </c>
       <c r="F66" t="n">
-        <v>38761.05</v>
+        <v>38395.45</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>38712.45659109797</v>
+        <v>38422.40539666112</v>
       </c>
     </row>
     <row r="67">
@@ -2161,25 +2161,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C67" t="n">
-        <v>38759.35</v>
+        <v>38402.7</v>
       </c>
       <c r="D67" t="n">
-        <v>38764.95</v>
+        <v>38425.65</v>
       </c>
       <c r="E67" t="n">
-        <v>38736.5</v>
+        <v>38392.35</v>
       </c>
       <c r="F67" t="n">
-        <v>38755.1</v>
+        <v>38418.3</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>38726.67106073198</v>
+        <v>38421.03693110742</v>
       </c>
     </row>
     <row r="68">
@@ -2187,25 +2187,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C68" t="n">
-        <v>38756.4</v>
+        <v>38419.05</v>
       </c>
       <c r="D68" t="n">
-        <v>38760.2</v>
+        <v>38429.9</v>
       </c>
       <c r="E68" t="n">
-        <v>38723.95</v>
+        <v>38394.25</v>
       </c>
       <c r="F68" t="n">
-        <v>38740.25</v>
+        <v>38420.85</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>38731.19737382132</v>
+        <v>38420.97462073828</v>
       </c>
     </row>
     <row r="69">
@@ -2213,25 +2213,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C69" t="n">
-        <v>38738.85</v>
+        <v>38423.5</v>
       </c>
       <c r="D69" t="n">
-        <v>38743.65</v>
+        <v>38424.7</v>
       </c>
       <c r="E69" t="n">
-        <v>38724.5</v>
+        <v>38397.55</v>
       </c>
       <c r="F69" t="n">
-        <v>38732.9</v>
+        <v>38405.75</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>38731.76491588088</v>
+        <v>38415.89974715885</v>
       </c>
     </row>
     <row r="70">
@@ -2239,25 +2239,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C70" t="n">
-        <v>38729.7</v>
+        <v>38405.75</v>
       </c>
       <c r="D70" t="n">
-        <v>38750.85</v>
+        <v>38427.15</v>
       </c>
       <c r="E70" t="n">
-        <v>38709.25</v>
+        <v>38403.3</v>
       </c>
       <c r="F70" t="n">
-        <v>38716.8</v>
+        <v>38416.9</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>38726.77661058726</v>
+        <v>38416.23316477257</v>
       </c>
     </row>
     <row r="71">
@@ -2265,25 +2265,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C71" t="n">
-        <v>38718</v>
+        <v>38409.75</v>
       </c>
       <c r="D71" t="n">
-        <v>38747</v>
+        <v>38482.15</v>
       </c>
       <c r="E71" t="n">
-        <v>38718</v>
+        <v>38408.8</v>
       </c>
       <c r="F71" t="n">
-        <v>38743.9</v>
+        <v>38478.35</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>38732.48440705817</v>
+        <v>38436.93877651505</v>
       </c>
     </row>
     <row r="72">
@@ -2291,25 +2291,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C72" t="n">
-        <v>38741.15</v>
+        <v>38476.7</v>
       </c>
       <c r="D72" t="n">
-        <v>38761.4</v>
+        <v>38486.6</v>
       </c>
       <c r="E72" t="n">
-        <v>38731.5</v>
+        <v>38451.5</v>
       </c>
       <c r="F72" t="n">
-        <v>38739.75</v>
+        <v>38469.85</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>38734.90627137212</v>
+        <v>38447.90918434337</v>
       </c>
     </row>
     <row r="73">
@@ -2317,25 +2317,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C73" t="n">
-        <v>38731.7</v>
+        <v>38471.65</v>
       </c>
       <c r="D73" t="n">
-        <v>38744.35</v>
+        <v>38496.4</v>
       </c>
       <c r="E73" t="n">
-        <v>38722.3</v>
+        <v>38455.6</v>
       </c>
       <c r="F73" t="n">
-        <v>38734.95</v>
+        <v>38496.4</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>38734.92084758142</v>
+        <v>38464.07278956225</v>
       </c>
     </row>
     <row r="74">
@@ -2343,25 +2343,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C74" t="n">
-        <v>38732.65</v>
+        <v>38495</v>
       </c>
       <c r="D74" t="n">
-        <v>38743.2</v>
+        <v>38497</v>
       </c>
       <c r="E74" t="n">
-        <v>38706.4</v>
+        <v>38457.85</v>
       </c>
       <c r="F74" t="n">
-        <v>38730.35</v>
+        <v>38459.35</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>38733.39723172094</v>
+        <v>38462.49852637484</v>
       </c>
     </row>
     <row r="75">
@@ -2369,25 +2369,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C75" t="n">
-        <v>38726.45</v>
+        <v>38459.35</v>
       </c>
       <c r="D75" t="n">
-        <v>38744.5</v>
+        <v>38474.5</v>
       </c>
       <c r="E75" t="n">
-        <v>38716.05</v>
+        <v>38453.45</v>
       </c>
       <c r="F75" t="n">
-        <v>38716.95</v>
+        <v>38471.1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>38727.91482114729</v>
+        <v>38465.3656842499</v>
       </c>
     </row>
     <row r="76">
@@ -2395,25 +2395,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="C76" t="n">
-        <v>38715.8</v>
+        <v>38468.45</v>
       </c>
       <c r="D76" t="n">
-        <v>38728.3</v>
+        <v>38479.85</v>
       </c>
       <c r="E76" t="n">
-        <v>38694.05</v>
+        <v>38455.15</v>
       </c>
       <c r="F76" t="n">
-        <v>38708.85</v>
+        <v>38465.7</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>38721.55988076486</v>
+        <v>38465.47712283327</v>
       </c>
     </row>
     <row r="77">
@@ -2421,25 +2421,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C77" t="n">
-        <v>38717.55</v>
+        <v>38302.35</v>
       </c>
       <c r="D77" t="n">
-        <v>38717.55</v>
+        <v>38302.35</v>
       </c>
       <c r="E77" t="n">
-        <v>38525.95</v>
+        <v>38107.4</v>
       </c>
       <c r="F77" t="n">
-        <v>38551.9</v>
+        <v>38149.05</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>38665.00658717658</v>
+        <v>38360.00141522218</v>
       </c>
     </row>
     <row r="78">
@@ -2447,25 +2447,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C78" t="n">
-        <v>38548.85</v>
+        <v>38153</v>
       </c>
       <c r="D78" t="n">
-        <v>38590.7</v>
+        <v>38254.05</v>
       </c>
       <c r="E78" t="n">
-        <v>38509.7</v>
+        <v>38147.7</v>
       </c>
       <c r="F78" t="n">
-        <v>38543.5</v>
+        <v>38239.45</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>38624.50439145105</v>
+        <v>38319.81761014812</v>
       </c>
     </row>
     <row r="79">
@@ -2473,25 +2473,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C79" t="n">
-        <v>38541.3</v>
+        <v>38243.85</v>
       </c>
       <c r="D79" t="n">
-        <v>38567.55</v>
+        <v>38245.1</v>
       </c>
       <c r="E79" t="n">
-        <v>38516.55</v>
+        <v>38184.4</v>
       </c>
       <c r="F79" t="n">
-        <v>38538.7</v>
+        <v>38208.1</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>38595.90292763404</v>
+        <v>38282.57840676542</v>
       </c>
     </row>
     <row r="80">
@@ -2499,25 +2499,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C80" t="n">
-        <v>38545.6</v>
+        <v>38209.9</v>
       </c>
       <c r="D80" t="n">
-        <v>38566.45</v>
+        <v>38220.55</v>
       </c>
       <c r="E80" t="n">
-        <v>38510.95</v>
+        <v>38164.85</v>
       </c>
       <c r="F80" t="n">
-        <v>38544.4</v>
+        <v>38214.75</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>38578.73528508936</v>
+        <v>38259.96893784362</v>
       </c>
     </row>
     <row r="81">
@@ -2525,25 +2525,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C81" t="n">
-        <v>38548</v>
+        <v>38205.4</v>
       </c>
       <c r="D81" t="n">
-        <v>38589</v>
+        <v>38361.85</v>
       </c>
       <c r="E81" t="n">
-        <v>38527.2</v>
+        <v>38204.1</v>
       </c>
       <c r="F81" t="n">
-        <v>38583.8</v>
+        <v>38331.95</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>38580.42352339291</v>
+        <v>38283.96262522908</v>
       </c>
     </row>
     <row r="82">
@@ -2551,25 +2551,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C82" t="n">
-        <v>38582.2</v>
+        <v>38328.65</v>
       </c>
       <c r="D82" t="n">
-        <v>38631.8</v>
+        <v>38359.95</v>
       </c>
       <c r="E82" t="n">
-        <v>38571.5</v>
+        <v>38306.45</v>
       </c>
       <c r="F82" t="n">
-        <v>38627.2</v>
+        <v>38345.85</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>38596.01568226194</v>
+        <v>38304.59175015272</v>
       </c>
     </row>
     <row r="83">
@@ -2577,25 +2577,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C83" t="n">
-        <v>38632.25</v>
+        <v>38347.75</v>
       </c>
       <c r="D83" t="n">
-        <v>38665.7</v>
+        <v>38362.7</v>
       </c>
       <c r="E83" t="n">
-        <v>38620.65</v>
+        <v>38295.55</v>
       </c>
       <c r="F83" t="n">
-        <v>38653.35</v>
+        <v>38354.7</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>38615.12712150796</v>
+        <v>38321.29450010182</v>
       </c>
     </row>
     <row r="84">
@@ -2603,25 +2603,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C84" t="n">
-        <v>38653.95</v>
+        <v>38356.2</v>
       </c>
       <c r="D84" t="n">
-        <v>38658.25</v>
+        <v>38364.4</v>
       </c>
       <c r="E84" t="n">
-        <v>38614.75</v>
+        <v>38303</v>
       </c>
       <c r="F84" t="n">
-        <v>38634.9</v>
+        <v>38306.95</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>38621.71808100531</v>
+        <v>38316.51300006788</v>
       </c>
     </row>
     <row r="85">
@@ -2629,25 +2629,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C85" t="n">
-        <v>38630.8</v>
+        <v>38309.15</v>
       </c>
       <c r="D85" t="n">
-        <v>38635.45</v>
+        <v>38309.15</v>
       </c>
       <c r="E85" t="n">
-        <v>38582.05</v>
+        <v>38257.7</v>
       </c>
       <c r="F85" t="n">
-        <v>38604.15</v>
+        <v>38269.25</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>38615.86205400354</v>
+        <v>38300.75866671192</v>
       </c>
     </row>
     <row r="86">
@@ -2655,25 +2655,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C86" t="n">
-        <v>38603.35</v>
+        <v>38269.25</v>
       </c>
       <c r="D86" t="n">
-        <v>38604.95</v>
+        <v>38270.5</v>
       </c>
       <c r="E86" t="n">
-        <v>38518.6</v>
+        <v>38214.7</v>
       </c>
       <c r="F86" t="n">
-        <v>38524.85</v>
+        <v>38236.9</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>38585.52470266903</v>
+        <v>38279.47244447462</v>
       </c>
     </row>
     <row r="87">
@@ -2681,25 +2681,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C87" t="n">
-        <v>38521.65</v>
+        <v>38239.3</v>
       </c>
       <c r="D87" t="n">
-        <v>38546.5</v>
+        <v>38267.5</v>
       </c>
       <c r="E87" t="n">
-        <v>38476.15</v>
+        <v>38195.15</v>
       </c>
       <c r="F87" t="n">
-        <v>38479.15</v>
+        <v>38208.3</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>38550.06646844602</v>
+        <v>38255.74829631641</v>
       </c>
     </row>
     <row r="88">
@@ -2707,25 +2707,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C88" t="n">
-        <v>38474.6</v>
+        <v>38203.35</v>
       </c>
       <c r="D88" t="n">
-        <v>38503.5</v>
+        <v>38248.3</v>
       </c>
       <c r="E88" t="n">
-        <v>38417.5</v>
+        <v>38200.3</v>
       </c>
       <c r="F88" t="n">
-        <v>38438.75</v>
+        <v>38242.9</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>38512.96097896402</v>
+        <v>38251.46553087761</v>
       </c>
     </row>
     <row r="89">
@@ -2733,25 +2733,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C89" t="n">
-        <v>38438.85</v>
+        <v>38244.6</v>
       </c>
       <c r="D89" t="n">
-        <v>38499.15</v>
+        <v>38279.6</v>
       </c>
       <c r="E89" t="n">
-        <v>38426.95</v>
+        <v>38230.95</v>
       </c>
       <c r="F89" t="n">
-        <v>38462.5</v>
+        <v>38244.05</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>38496.14065264268</v>
+        <v>38248.99368725174</v>
       </c>
     </row>
     <row r="90">
@@ -2759,25 +2759,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C90" t="n">
-        <v>38462.35</v>
+        <v>38242.15</v>
       </c>
       <c r="D90" t="n">
-        <v>38488.9</v>
+        <v>38247.35</v>
       </c>
       <c r="E90" t="n">
-        <v>38449.25</v>
+        <v>38223.95</v>
       </c>
       <c r="F90" t="n">
-        <v>38477.15</v>
+        <v>38223.95</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>38489.81043509512</v>
+        <v>38240.64579150116</v>
       </c>
     </row>
     <row r="91">
@@ -2785,25 +2785,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C91" t="n">
-        <v>38475.15</v>
+        <v>38223.4</v>
       </c>
       <c r="D91" t="n">
-        <v>38496.55</v>
+        <v>38225.05</v>
       </c>
       <c r="E91" t="n">
-        <v>38455.3</v>
+        <v>38185.65</v>
       </c>
       <c r="F91" t="n">
-        <v>38458.15</v>
+        <v>38188.1</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>38479.25695673008</v>
+        <v>38223.13052766744</v>
       </c>
     </row>
     <row r="92">
@@ -2811,25 +2811,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C92" t="n">
-        <v>38457.95</v>
+        <v>38190.2</v>
       </c>
       <c r="D92" t="n">
-        <v>38470</v>
+        <v>38202.35</v>
       </c>
       <c r="E92" t="n">
-        <v>38436.4</v>
+        <v>38145</v>
       </c>
       <c r="F92" t="n">
-        <v>38470</v>
+        <v>38161.45</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>38476.17130448672</v>
+        <v>38202.5703517783</v>
       </c>
     </row>
     <row r="93">
@@ -2837,25 +2837,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C93" t="n">
-        <v>38467.25</v>
+        <v>38159</v>
       </c>
       <c r="D93" t="n">
-        <v>38468.2</v>
+        <v>38169.15</v>
       </c>
       <c r="E93" t="n">
-        <v>38405.55</v>
+        <v>38123.85</v>
       </c>
       <c r="F93" t="n">
-        <v>38427.4</v>
+        <v>38123.85</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>38459.91420299115</v>
+        <v>38176.33023451886</v>
       </c>
     </row>
     <row r="94">
@@ -2863,25 +2863,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C94" t="n">
-        <v>38428</v>
+        <v>38122.05</v>
       </c>
       <c r="D94" t="n">
-        <v>38475.9</v>
+        <v>38135.95</v>
       </c>
       <c r="E94" t="n">
-        <v>38405.85</v>
+        <v>38095</v>
       </c>
       <c r="F94" t="n">
-        <v>38472.3</v>
+        <v>38119.35</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>38464.0428019941</v>
+        <v>38157.33682301258</v>
       </c>
     </row>
     <row r="95">
@@ -2889,25 +2889,25 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C95" t="n">
-        <v>38469.25</v>
+        <v>38118.6</v>
       </c>
       <c r="D95" t="n">
-        <v>38532.25</v>
+        <v>38164.05</v>
       </c>
       <c r="E95" t="n">
-        <v>38465.2</v>
+        <v>38107.45</v>
       </c>
       <c r="F95" t="n">
-        <v>38504.35</v>
+        <v>38159.4</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>38477.47853466273</v>
+        <v>38158.02454867505</v>
       </c>
     </row>
     <row r="96">
@@ -2915,25 +2915,25 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C96" t="n">
-        <v>38503.55</v>
+        <v>38156</v>
       </c>
       <c r="D96" t="n">
-        <v>38536</v>
+        <v>38177.7</v>
       </c>
       <c r="E96" t="n">
-        <v>38499.2</v>
+        <v>38150.55</v>
       </c>
       <c r="F96" t="n">
-        <v>38536</v>
+        <v>38151.9</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>38496.98568977516</v>
+        <v>38155.98303245004</v>
       </c>
     </row>
     <row r="97">
@@ -2941,25 +2941,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C97" t="n">
-        <v>38534.85</v>
+        <v>38150.9</v>
       </c>
       <c r="D97" t="n">
-        <v>38567.45</v>
+        <v>38178.7</v>
       </c>
       <c r="E97" t="n">
-        <v>38524.95</v>
+        <v>38129.7</v>
       </c>
       <c r="F97" t="n">
-        <v>38529.45</v>
+        <v>38133.8</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>38507.80712651677</v>
+        <v>38148.58868830003</v>
       </c>
     </row>
     <row r="98">
@@ -2967,25 +2967,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C98" t="n">
-        <v>38529.1</v>
+        <v>38126.85</v>
       </c>
       <c r="D98" t="n">
-        <v>38536.3</v>
+        <v>38141.8</v>
       </c>
       <c r="E98" t="n">
-        <v>38517.2</v>
+        <v>38106.15</v>
       </c>
       <c r="F98" t="n">
-        <v>38525.5</v>
+        <v>38112.8</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>38513.70475101119</v>
+        <v>38136.65912553336</v>
       </c>
     </row>
     <row r="99">
@@ -2993,25 +2993,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C99" t="n">
-        <v>38525.85</v>
+        <v>38109.7</v>
       </c>
       <c r="D99" t="n">
-        <v>38546.45</v>
+        <v>38145.35</v>
       </c>
       <c r="E99" t="n">
-        <v>38518.1</v>
+        <v>38108.65</v>
       </c>
       <c r="F99" t="n">
-        <v>38522.15</v>
+        <v>38132</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>38516.51983400746</v>
+        <v>38135.10608368891</v>
       </c>
     </row>
     <row r="100">
@@ -3019,25 +3019,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C100" t="n">
-        <v>38520.6</v>
+        <v>38131.55</v>
       </c>
       <c r="D100" t="n">
-        <v>38532.25</v>
+        <v>38139.7</v>
       </c>
       <c r="E100" t="n">
-        <v>38502.95</v>
+        <v>38106.1</v>
       </c>
       <c r="F100" t="n">
-        <v>38518.3</v>
+        <v>38106.1</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>38517.11322267164</v>
+        <v>38125.43738912595</v>
       </c>
     </row>
     <row r="101">
@@ -3045,25 +3045,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C101" t="n">
-        <v>38520.15</v>
+        <v>38104.1</v>
       </c>
       <c r="D101" t="n">
-        <v>38527.65</v>
+        <v>38104.1</v>
       </c>
       <c r="E101" t="n">
-        <v>38504.55</v>
+        <v>38046.8</v>
       </c>
       <c r="F101" t="n">
-        <v>38515.05</v>
+        <v>38065.85</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>38516.4254817811</v>
+        <v>38105.57492608397</v>
       </c>
     </row>
     <row r="102">
@@ -3071,25 +3071,25 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C102" t="n">
-        <v>38519.15</v>
+        <v>38070.85</v>
       </c>
       <c r="D102" t="n">
-        <v>38529.5</v>
+        <v>38070.85</v>
       </c>
       <c r="E102" t="n">
-        <v>38510.25</v>
+        <v>38045.05</v>
       </c>
       <c r="F102" t="n">
-        <v>38521.7</v>
+        <v>38065.4</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>38518.18365452073</v>
+        <v>38092.18328405598</v>
       </c>
     </row>
     <row r="103">
@@ -3097,25 +3097,25 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C103" t="n">
-        <v>38520.65</v>
+        <v>38064.75</v>
       </c>
       <c r="D103" t="n">
-        <v>38536.35</v>
+        <v>38064.75</v>
       </c>
       <c r="E103" t="n">
-        <v>38515.4</v>
+        <v>38022.7</v>
       </c>
       <c r="F103" t="n">
-        <v>38518.3</v>
+        <v>38056.3</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>38518.22243634716</v>
+        <v>38080.22218937066</v>
       </c>
     </row>
     <row r="104">
@@ -3123,25 +3123,25 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C104" t="n">
-        <v>38513.4</v>
+        <v>38055.65</v>
       </c>
       <c r="D104" t="n">
-        <v>38524.9</v>
+        <v>38055.65</v>
       </c>
       <c r="E104" t="n">
-        <v>38481.8</v>
+        <v>38009.3</v>
       </c>
       <c r="F104" t="n">
-        <v>38486.7</v>
+        <v>38018.75</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>38507.71495756478</v>
+        <v>38059.73145958044</v>
       </c>
     </row>
     <row r="105">
@@ -3149,25 +3149,25 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C105" t="n">
-        <v>38489.5</v>
+        <v>38017</v>
       </c>
       <c r="D105" t="n">
-        <v>38519.1</v>
+        <v>38056</v>
       </c>
       <c r="E105" t="n">
-        <v>38480.5</v>
+        <v>38015.55</v>
       </c>
       <c r="F105" t="n">
-        <v>38519.1</v>
+        <v>38047.6</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>38511.50997170986</v>
+        <v>38055.6876397203</v>
       </c>
     </row>
     <row r="106">
@@ -3175,25 +3175,25 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C106" t="n">
-        <v>38517.05</v>
+        <v>38048.7</v>
       </c>
       <c r="D106" t="n">
-        <v>38552.85</v>
+        <v>38113.95</v>
       </c>
       <c r="E106" t="n">
-        <v>38517.05</v>
+        <v>38047.8</v>
       </c>
       <c r="F106" t="n">
-        <v>38541.2</v>
+        <v>38106.6</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>38521.40664780657</v>
+        <v>38072.6584264802</v>
       </c>
     </row>
     <row r="107">
@@ -3201,25 +3201,25 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C107" t="n">
-        <v>38536.8</v>
+        <v>38105.9</v>
       </c>
       <c r="D107" t="n">
-        <v>38541.05</v>
+        <v>38135.35</v>
       </c>
       <c r="E107" t="n">
-        <v>38518.65</v>
+        <v>38105.9</v>
       </c>
       <c r="F107" t="n">
-        <v>38533.55</v>
+        <v>38117.45</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>38525.45443187105</v>
+        <v>38087.5889509868</v>
       </c>
     </row>
     <row r="108">
@@ -3227,25 +3227,25 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C108" t="n">
-        <v>38532.45</v>
+        <v>38116.05</v>
       </c>
       <c r="D108" t="n">
-        <v>38572.3</v>
+        <v>38155.8</v>
       </c>
       <c r="E108" t="n">
-        <v>38527.7</v>
+        <v>38116.05</v>
       </c>
       <c r="F108" t="n">
-        <v>38571.9</v>
+        <v>38116.7</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>38540.93628791404</v>
+        <v>38097.2926339912</v>
       </c>
     </row>
     <row r="109">
@@ -3253,25 +3253,25 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C109" t="n">
-        <v>38571.8</v>
+        <v>38116.2</v>
       </c>
       <c r="D109" t="n">
-        <v>38576.4</v>
+        <v>38122.15</v>
       </c>
       <c r="E109" t="n">
-        <v>38545.15</v>
+        <v>38083.5</v>
       </c>
       <c r="F109" t="n">
-        <v>38545.5</v>
+        <v>38103.55</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>38542.45752527603</v>
+        <v>38099.3784226608</v>
       </c>
     </row>
     <row r="110">
@@ -3279,25 +3279,25 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C110" t="n">
-        <v>38544.6</v>
+        <v>38108.35</v>
       </c>
       <c r="D110" t="n">
-        <v>38557.8</v>
+        <v>38135.3</v>
       </c>
       <c r="E110" t="n">
-        <v>38523.55</v>
+        <v>38106.25</v>
       </c>
       <c r="F110" t="n">
-        <v>38551</v>
+        <v>38126.1</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>38545.30501685069</v>
+        <v>38108.2856151072</v>
       </c>
     </row>
     <row r="111">
@@ -3305,25 +3305,25 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C111" t="n">
-        <v>38552.3</v>
+        <v>38127.15</v>
       </c>
       <c r="D111" t="n">
-        <v>38559.15</v>
+        <v>38145.6</v>
       </c>
       <c r="E111" t="n">
-        <v>38531.8</v>
+        <v>38120.6</v>
       </c>
       <c r="F111" t="n">
-        <v>38534.8</v>
+        <v>38120.6</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>38541.80334456713</v>
+        <v>38112.39041007147</v>
       </c>
     </row>
     <row r="112">
@@ -3331,25 +3331,25 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C112" t="n">
-        <v>38533.85</v>
+        <v>38120.5</v>
       </c>
       <c r="D112" t="n">
-        <v>38553.65</v>
+        <v>38146.7</v>
       </c>
       <c r="E112" t="n">
-        <v>38522.5</v>
+        <v>38116.9</v>
       </c>
       <c r="F112" t="n">
-        <v>38544.5</v>
+        <v>38127.35</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>38542.70222971142</v>
+        <v>38117.37694004764</v>
       </c>
     </row>
     <row r="113">
@@ -3357,25 +3357,25 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C113" t="n">
-        <v>38549.25</v>
+        <v>38128.15</v>
       </c>
       <c r="D113" t="n">
-        <v>38559.6</v>
+        <v>38146.4</v>
       </c>
       <c r="E113" t="n">
-        <v>38535.95</v>
+        <v>38124.5</v>
       </c>
       <c r="F113" t="n">
-        <v>38538.3</v>
+        <v>38133.6</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>38541.23481980762</v>
+        <v>38122.78462669843</v>
       </c>
     </row>
     <row r="114">
@@ -3383,25 +3383,25 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C114" t="n">
-        <v>38537.1</v>
+        <v>38131.65</v>
       </c>
       <c r="D114" t="n">
-        <v>38538.9</v>
+        <v>38138.6</v>
       </c>
       <c r="E114" t="n">
-        <v>38492.45</v>
+        <v>38113.85</v>
       </c>
       <c r="F114" t="n">
-        <v>38498.55</v>
+        <v>38122</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>38527.00654653842</v>
+        <v>38122.52308446563</v>
       </c>
     </row>
     <row r="115">
@@ -3409,25 +3409,25 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C115" t="n">
-        <v>38502.45</v>
+        <v>38126.6</v>
       </c>
       <c r="D115" t="n">
-        <v>38518.85</v>
+        <v>38136.55</v>
       </c>
       <c r="E115" t="n">
-        <v>38478.55</v>
+        <v>38099.45</v>
       </c>
       <c r="F115" t="n">
-        <v>38481.6</v>
+        <v>38128.25</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>38511.87103102561</v>
+        <v>38124.43205631042</v>
       </c>
     </row>
     <row r="116">
@@ -3435,25 +3435,25 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C116" t="n">
-        <v>38478.85</v>
+        <v>38125.6</v>
       </c>
       <c r="D116" t="n">
-        <v>38488.15</v>
+        <v>38168</v>
       </c>
       <c r="E116" t="n">
-        <v>38454.95</v>
+        <v>38125</v>
       </c>
       <c r="F116" t="n">
-        <v>38464.65</v>
+        <v>38159</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>38496.13068735041</v>
+        <v>38135.95470420695</v>
       </c>
     </row>
     <row r="117">
@@ -3461,25 +3461,25 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C117" t="n">
-        <v>38466.55</v>
+        <v>38163.3</v>
       </c>
       <c r="D117" t="n">
-        <v>38473.15</v>
+        <v>38171.85</v>
       </c>
       <c r="E117" t="n">
-        <v>38434.05</v>
+        <v>38153.5</v>
       </c>
       <c r="F117" t="n">
-        <v>38445.25</v>
+        <v>38159.65</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>38479.17045823361</v>
+        <v>38143.85313613796</v>
       </c>
     </row>
     <row r="118">
@@ -3487,25 +3487,25 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C118" t="n">
-        <v>38446.15</v>
+        <v>38160.5</v>
       </c>
       <c r="D118" t="n">
-        <v>38484.95</v>
+        <v>38191.4</v>
       </c>
       <c r="E118" t="n">
-        <v>38439.05</v>
+        <v>38159.4</v>
       </c>
       <c r="F118" t="n">
-        <v>38469.35</v>
+        <v>38173.6</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>38475.89697215574</v>
+        <v>38153.76875742531</v>
       </c>
     </row>
     <row r="119">
@@ -3513,25 +3513,25 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C119" t="n">
-        <v>38468.95</v>
+        <v>38170.35</v>
       </c>
       <c r="D119" t="n">
-        <v>38499.35</v>
+        <v>38209.5</v>
       </c>
       <c r="E119" t="n">
-        <v>38442.65</v>
+        <v>38170.35</v>
       </c>
       <c r="F119" t="n">
-        <v>38457.45</v>
+        <v>38191.45</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>38469.74798143716</v>
+        <v>38166.32917161688</v>
       </c>
     </row>
     <row r="120">
@@ -3539,25 +3539,25 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C120" t="n">
-        <v>38457.05</v>
+        <v>38190</v>
       </c>
       <c r="D120" t="n">
-        <v>38465.75</v>
+        <v>38197.5</v>
       </c>
       <c r="E120" t="n">
-        <v>38435.4</v>
+        <v>38174.45</v>
       </c>
       <c r="F120" t="n">
-        <v>38455.45</v>
+        <v>38174.45</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>38464.98198762478</v>
+        <v>38169.03611441125</v>
       </c>
     </row>
     <row r="121">
@@ -3565,25 +3565,25 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C121" t="n">
-        <v>38452</v>
+        <v>38174.4</v>
       </c>
       <c r="D121" t="n">
-        <v>38472.3</v>
+        <v>38174.4</v>
       </c>
       <c r="E121" t="n">
-        <v>38433.6</v>
+        <v>38136.25</v>
       </c>
       <c r="F121" t="n">
-        <v>38456.95</v>
+        <v>38151.8</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>38462.30465841652</v>
+        <v>38163.29074294084</v>
       </c>
     </row>
     <row r="122">
@@ -3591,25 +3591,25 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C122" t="n">
-        <v>38457.8</v>
+        <v>38151.2</v>
       </c>
       <c r="D122" t="n">
-        <v>38466.3</v>
+        <v>38181.1</v>
       </c>
       <c r="E122" t="n">
-        <v>38445</v>
+        <v>38144.8</v>
       </c>
       <c r="F122" t="n">
-        <v>38452.5</v>
+        <v>38174.5</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>38459.03643894435</v>
+        <v>38167.02716196056</v>
       </c>
     </row>
     <row r="123">
@@ -3617,25 +3617,25 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C123" t="n">
-        <v>38453.95</v>
+        <v>38175.7</v>
       </c>
       <c r="D123" t="n">
-        <v>38461.35</v>
+        <v>38205</v>
       </c>
       <c r="E123" t="n">
-        <v>38418.2</v>
+        <v>38173.05</v>
       </c>
       <c r="F123" t="n">
-        <v>38441.65</v>
+        <v>38198.95</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>38453.24095929624</v>
+        <v>38177.66810797371</v>
       </c>
     </row>
     <row r="124">
@@ -3643,25 +3643,25 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C124" t="n">
-        <v>38442.4</v>
+        <v>38200.9</v>
       </c>
       <c r="D124" t="n">
-        <v>38476.75</v>
+        <v>38206.75</v>
       </c>
       <c r="E124" t="n">
-        <v>38436.95</v>
+        <v>38183.5</v>
       </c>
       <c r="F124" t="n">
-        <v>38458.25</v>
+        <v>38204.8</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>38454.91063953083</v>
+        <v>38186.71207198247</v>
       </c>
     </row>
     <row r="125">
@@ -3669,25 +3669,25 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C125" t="n">
-        <v>38462.35</v>
+        <v>38205.55</v>
       </c>
       <c r="D125" t="n">
-        <v>38463.8</v>
+        <v>38229.65</v>
       </c>
       <c r="E125" t="n">
-        <v>38428.65</v>
+        <v>38202.1</v>
       </c>
       <c r="F125" t="n">
-        <v>38446.65</v>
+        <v>38205.2</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>38452.15709302055</v>
+        <v>38192.87471465499</v>
       </c>
     </row>
     <row r="126">
@@ -3695,25 +3695,25 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C126" t="n">
-        <v>38445.25</v>
+        <v>38206.3</v>
       </c>
       <c r="D126" t="n">
-        <v>38448.2</v>
+        <v>38221.6</v>
       </c>
       <c r="E126" t="n">
-        <v>38398.05</v>
+        <v>38201.95</v>
       </c>
       <c r="F126" t="n">
-        <v>38404.45</v>
+        <v>38215.45</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>38436.25472868037</v>
+        <v>38200.39980977</v>
       </c>
     </row>
     <row r="127">
@@ -3721,25 +3721,25 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C127" t="n">
-        <v>38405.1</v>
+        <v>38213.9</v>
       </c>
       <c r="D127" t="n">
-        <v>38422.15</v>
+        <v>38238</v>
       </c>
       <c r="E127" t="n">
-        <v>38378.4</v>
+        <v>38209.55</v>
       </c>
       <c r="F127" t="n">
-        <v>38402.7</v>
+        <v>38220.15</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>38425.06981912025</v>
+        <v>38206.98320651333</v>
       </c>
     </row>
     <row r="128">
@@ -3747,25 +3747,25 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C128" t="n">
-        <v>38397.95</v>
+        <v>38223.45</v>
       </c>
       <c r="D128" t="n">
-        <v>38459.2</v>
+        <v>38237.6</v>
       </c>
       <c r="E128" t="n">
-        <v>38397.95</v>
+        <v>38203.9</v>
       </c>
       <c r="F128" t="n">
-        <v>38457.5</v>
+        <v>38226.5</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>38435.8798794135</v>
+        <v>38213.48880434223</v>
       </c>
     </row>
     <row r="129">
@@ -3773,25 +3773,25 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C129" t="n">
-        <v>38455.75</v>
+        <v>38226.95</v>
       </c>
       <c r="D129" t="n">
-        <v>38493.2</v>
+        <v>38230.9</v>
       </c>
       <c r="E129" t="n">
-        <v>38454.55</v>
+        <v>38215.55</v>
       </c>
       <c r="F129" t="n">
-        <v>38477.45</v>
+        <v>38223.2</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>38449.73658627567</v>
+        <v>38216.72586956149</v>
       </c>
     </row>
     <row r="130">
@@ -3799,25 +3799,25 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C130" t="n">
-        <v>38473.45</v>
+        <v>38224.15</v>
       </c>
       <c r="D130" t="n">
-        <v>38493.05</v>
+        <v>38266.45</v>
       </c>
       <c r="E130" t="n">
-        <v>38471.9</v>
+        <v>38221.65</v>
       </c>
       <c r="F130" t="n">
-        <v>38491.25</v>
+        <v>38240.9</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>38463.57439085045</v>
+        <v>38224.783913041</v>
       </c>
     </row>
     <row r="131">
@@ -3825,25 +3825,25 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C131" t="n">
-        <v>38489.95</v>
+        <v>38241.9</v>
       </c>
       <c r="D131" t="n">
-        <v>38504.3</v>
+        <v>38280.7</v>
       </c>
       <c r="E131" t="n">
-        <v>38460.45</v>
+        <v>38239.65</v>
       </c>
       <c r="F131" t="n">
-        <v>38466.3</v>
+        <v>38279.25</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>38464.48292723364</v>
+        <v>38242.93927536067</v>
       </c>
     </row>
     <row r="132">
@@ -3851,25 +3851,25 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C132" t="n">
-        <v>38468.4</v>
+        <v>38277.5</v>
       </c>
       <c r="D132" t="n">
-        <v>38482.25</v>
+        <v>38327.95</v>
       </c>
       <c r="E132" t="n">
-        <v>38453.9</v>
+        <v>38273.7</v>
       </c>
       <c r="F132" t="n">
-        <v>38472.3</v>
+        <v>38322.8</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>38467.08861815576</v>
+        <v>38269.55951690712</v>
       </c>
     </row>
     <row r="133">
@@ -3877,25 +3877,25 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C133" t="n">
-        <v>38473.85</v>
+        <v>38319.2</v>
       </c>
       <c r="D133" t="n">
-        <v>38481.15</v>
+        <v>38353.05</v>
       </c>
       <c r="E133" t="n">
-        <v>38459.15</v>
+        <v>38309.6</v>
       </c>
       <c r="F133" t="n">
-        <v>38475.8</v>
+        <v>38344.05</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>38469.99241210384</v>
+        <v>38294.38967793808</v>
       </c>
     </row>
     <row r="134">
@@ -3903,25 +3903,25 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C134" t="n">
-        <v>38474.95</v>
+        <v>38341.95</v>
       </c>
       <c r="D134" t="n">
-        <v>38528.6</v>
+        <v>38348.2</v>
       </c>
       <c r="E134" t="n">
-        <v>38472.05</v>
+        <v>38327.8</v>
       </c>
       <c r="F134" t="n">
-        <v>38512.75</v>
+        <v>38329.6</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>38484.24494140256</v>
+        <v>38306.12645195873</v>
       </c>
     </row>
     <row r="135">
@@ -3929,25 +3929,25 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C135" t="n">
-        <v>38515.2</v>
+        <v>38312.7</v>
       </c>
       <c r="D135" t="n">
-        <v>38516.5</v>
+        <v>38327.1</v>
       </c>
       <c r="E135" t="n">
-        <v>38481.1</v>
+        <v>38294.3</v>
       </c>
       <c r="F135" t="n">
-        <v>38490.4</v>
+        <v>38304.1</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>38486.29662760171</v>
+        <v>38305.45096797249</v>
       </c>
     </row>
     <row r="136">
@@ -3955,25 +3955,25 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C136" t="n">
-        <v>38491.1</v>
+        <v>38305.2</v>
       </c>
       <c r="D136" t="n">
-        <v>38492.1</v>
+        <v>38323.5</v>
       </c>
       <c r="E136" t="n">
-        <v>38416.8</v>
+        <v>38284.7</v>
       </c>
       <c r="F136" t="n">
-        <v>38423.95</v>
+        <v>38316.95</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>38465.51441840114</v>
+        <v>38309.28397864832</v>
       </c>
     </row>
     <row r="137">
@@ -3981,25 +3981,25 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C137" t="n">
-        <v>38424.9</v>
+        <v>38317.4</v>
       </c>
       <c r="D137" t="n">
-        <v>38447.25</v>
+        <v>38349.6</v>
       </c>
       <c r="E137" t="n">
-        <v>38419.4</v>
+        <v>38293.75</v>
       </c>
       <c r="F137" t="n">
-        <v>38434.7</v>
+        <v>38304.75</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>38455.24294560077</v>
+        <v>38307.77265243222</v>
       </c>
     </row>
     <row r="138">
@@ -4007,25 +4007,25 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C138" t="n">
-        <v>38438.7</v>
+        <v>38305.6</v>
       </c>
       <c r="D138" t="n">
-        <v>38462.75</v>
+        <v>38320.85</v>
       </c>
       <c r="E138" t="n">
-        <v>38392.7</v>
+        <v>38274.95</v>
       </c>
       <c r="F138" t="n">
-        <v>38420.05</v>
+        <v>38291.95</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>38443.51196373385</v>
+        <v>38302.49843495482</v>
       </c>
     </row>
     <row r="139">
@@ -4033,25 +4033,25 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C139" t="n">
-        <v>38421.7</v>
+        <v>38293</v>
       </c>
       <c r="D139" t="n">
-        <v>38428.25</v>
+        <v>38329.75</v>
       </c>
       <c r="E139" t="n">
-        <v>38400.25</v>
+        <v>38274.95</v>
       </c>
       <c r="F139" t="n">
-        <v>38402.3</v>
+        <v>38319.5</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>38429.77464248924</v>
+        <v>38308.16562330321</v>
       </c>
     </row>
     <row r="140">
@@ -4059,25 +4059,25 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C140" t="n">
-        <v>38407.1</v>
+        <v>38317.85</v>
       </c>
       <c r="D140" t="n">
-        <v>38461.8</v>
+        <v>38327.95</v>
       </c>
       <c r="E140" t="n">
-        <v>38404.95</v>
+        <v>38303.55</v>
       </c>
       <c r="F140" t="n">
-        <v>38448.1</v>
+        <v>38306.9</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>38435.88309499282</v>
+        <v>38307.74374886882</v>
       </c>
     </row>
     <row r="141">
@@ -4085,25 +4085,25 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C141" t="n">
-        <v>38452.65</v>
+        <v>38306.4</v>
       </c>
       <c r="D141" t="n">
-        <v>38463.2</v>
+        <v>38313.6</v>
       </c>
       <c r="E141" t="n">
-        <v>38394</v>
+        <v>38285.3</v>
       </c>
       <c r="F141" t="n">
-        <v>38395.45</v>
+        <v>38293.75</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>38422.40539666188</v>
+        <v>38303.07916591255</v>
       </c>
     </row>
     <row r="142">
@@ -4111,25 +4111,25 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C142" t="n">
-        <v>38402.7</v>
+        <v>38294.25</v>
       </c>
       <c r="D142" t="n">
-        <v>38425.65</v>
+        <v>38305.6</v>
       </c>
       <c r="E142" t="n">
-        <v>38392.35</v>
+        <v>38285.9</v>
       </c>
       <c r="F142" t="n">
-        <v>38418.3</v>
+        <v>38302.95</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>38421.03693110793</v>
+        <v>38303.03611060837</v>
       </c>
     </row>
     <row r="143">
@@ -4137,25 +4137,25 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C143" t="n">
-        <v>38419.05</v>
+        <v>38301.55</v>
       </c>
       <c r="D143" t="n">
-        <v>38429.9</v>
+        <v>38334.25</v>
       </c>
       <c r="E143" t="n">
-        <v>38394.25</v>
+        <v>38300.55</v>
       </c>
       <c r="F143" t="n">
-        <v>38420.85</v>
+        <v>38322.45</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>38420.97462073862</v>
+        <v>38309.50740707225</v>
       </c>
     </row>
     <row r="144">
@@ -4163,25 +4163,25 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C144" t="n">
-        <v>38423.5</v>
+        <v>38324</v>
       </c>
       <c r="D144" t="n">
-        <v>38424.7</v>
+        <v>38339.4</v>
       </c>
       <c r="E144" t="n">
-        <v>38397.55</v>
+        <v>38306.2</v>
       </c>
       <c r="F144" t="n">
-        <v>38405.75</v>
+        <v>38334.6</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>38415.89974715908</v>
+        <v>38317.87160471483</v>
       </c>
     </row>
     <row r="145">
@@ -4189,25 +4189,25 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C145" t="n">
-        <v>38405.75</v>
+        <v>38331.4</v>
       </c>
       <c r="D145" t="n">
-        <v>38427.15</v>
+        <v>38358.85</v>
       </c>
       <c r="E145" t="n">
-        <v>38403.3</v>
+        <v>38329.05</v>
       </c>
       <c r="F145" t="n">
-        <v>38416.9</v>
+        <v>38339.95</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>38416.23316477273</v>
+        <v>38325.23106980989</v>
       </c>
     </row>
     <row r="146">
@@ -4215,25 +4215,25 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C146" t="n">
-        <v>38409.75</v>
+        <v>38338.85</v>
       </c>
       <c r="D146" t="n">
-        <v>38482.15</v>
+        <v>38444.1</v>
       </c>
       <c r="E146" t="n">
-        <v>38408.8</v>
+        <v>38338.85</v>
       </c>
       <c r="F146" t="n">
-        <v>38478.35</v>
+        <v>38436.75</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>38436.93877651515</v>
+        <v>38362.40404653993</v>
       </c>
     </row>
     <row r="147">
@@ -4241,25 +4241,25 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C147" t="n">
-        <v>38476.7</v>
+        <v>38433.8</v>
       </c>
       <c r="D147" t="n">
-        <v>38486.6</v>
+        <v>38446.5</v>
       </c>
       <c r="E147" t="n">
-        <v>38451.5</v>
+        <v>38367.05</v>
       </c>
       <c r="F147" t="n">
-        <v>38469.85</v>
+        <v>38378.75</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>38447.90918434343</v>
+        <v>38367.85269769329</v>
       </c>
     </row>
     <row r="148">
@@ -4267,25 +4267,25 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C148" t="n">
-        <v>38471.65</v>
+        <v>38378.2</v>
       </c>
       <c r="D148" t="n">
-        <v>38496.4</v>
+        <v>38398.95</v>
       </c>
       <c r="E148" t="n">
-        <v>38455.6</v>
+        <v>38367.45</v>
       </c>
       <c r="F148" t="n">
-        <v>38496.4</v>
+        <v>38378.3</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>38464.07278956229</v>
+        <v>38371.33513179553</v>
       </c>
     </row>
     <row r="149">
@@ -4293,51 +4293,25 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="C149" t="n">
-        <v>38495</v>
+        <v>38377.9</v>
       </c>
       <c r="D149" t="n">
-        <v>38497</v>
+        <v>38385.6</v>
       </c>
       <c r="E149" t="n">
-        <v>38457.85</v>
+        <v>38352.55</v>
       </c>
       <c r="F149" t="n">
-        <v>38459.35</v>
+        <v>38353.2</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>38462.49852637487</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2" t="n">
-        <v>44574</v>
-      </c>
-      <c r="C150" t="n">
-        <v>38459.35</v>
-      </c>
-      <c r="D150" t="n">
-        <v>38474.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>38453.45</v>
-      </c>
-      <c r="F150" t="n">
-        <v>38471.1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>38465.36568424991</v>
+        <v>38365.29008786369</v>
       </c>
     </row>
   </sheetData>

--- a/bank_nifty_stats_report.xlsx
+++ b/bank_nifty_stats_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3134"/>
+  <dimension ref="A1:H3143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81924,6 +81924,240 @@
         <v>38232.17459443517</v>
       </c>
     </row>
+    <row r="3135">
+      <c r="A3135" s="1" t="n">
+        <v>3133</v>
+      </c>
+      <c r="B3135" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3135" t="n">
+        <v>38252.5</v>
+      </c>
+      <c r="D3135" t="n">
+        <v>38275.5</v>
+      </c>
+      <c r="E3135" t="n">
+        <v>38202.7</v>
+      </c>
+      <c r="F3135" t="n">
+        <v>38239.5</v>
+      </c>
+      <c r="G3135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3135" t="n">
+        <v>38234.61639629012</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" s="1" t="n">
+        <v>3134</v>
+      </c>
+      <c r="B3136" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3136" t="n">
+        <v>38239.05</v>
+      </c>
+      <c r="D3136" t="n">
+        <v>38245.65</v>
+      </c>
+      <c r="E3136" t="n">
+        <v>38212.45</v>
+      </c>
+      <c r="F3136" t="n">
+        <v>38230.95</v>
+      </c>
+      <c r="G3136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3136" t="n">
+        <v>38233.39426419341</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" s="1" t="n">
+        <v>3135</v>
+      </c>
+      <c r="B3137" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3137" t="n">
+        <v>38232.95</v>
+      </c>
+      <c r="D3137" t="n">
+        <v>38240.75</v>
+      </c>
+      <c r="E3137" t="n">
+        <v>38220.25</v>
+      </c>
+      <c r="F3137" t="n">
+        <v>38238.65</v>
+      </c>
+      <c r="G3137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3137" t="n">
+        <v>38235.14617612894</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" s="1" t="n">
+        <v>3136</v>
+      </c>
+      <c r="B3138" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3138" t="n">
+        <v>38238.35</v>
+      </c>
+      <c r="D3138" t="n">
+        <v>38242.7</v>
+      </c>
+      <c r="E3138" t="n">
+        <v>38211.65</v>
+      </c>
+      <c r="F3138" t="n">
+        <v>38226.4</v>
+      </c>
+      <c r="G3138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3138" t="n">
+        <v>38232.23078408596</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" s="1" t="n">
+        <v>3137</v>
+      </c>
+      <c r="B3139" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3139" t="n">
+        <v>38230.3</v>
+      </c>
+      <c r="D3139" t="n">
+        <v>38238.25</v>
+      </c>
+      <c r="E3139" t="n">
+        <v>38202.3</v>
+      </c>
+      <c r="F3139" t="n">
+        <v>38227.45</v>
+      </c>
+      <c r="G3139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3139" t="n">
+        <v>38230.63718939065</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" s="1" t="n">
+        <v>3138</v>
+      </c>
+      <c r="B3140" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3140" t="n">
+        <v>38229.15</v>
+      </c>
+      <c r="D3140" t="n">
+        <v>38243.45</v>
+      </c>
+      <c r="E3140" t="n">
+        <v>38219.7</v>
+      </c>
+      <c r="F3140" t="n">
+        <v>38231.1</v>
+      </c>
+      <c r="G3140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3140" t="n">
+        <v>38230.79145959377</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" s="1" t="n">
+        <v>3139</v>
+      </c>
+      <c r="B3141" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3141" t="n">
+        <v>38229.55</v>
+      </c>
+      <c r="D3141" t="n">
+        <v>38261.25</v>
+      </c>
+      <c r="E3141" t="n">
+        <v>38216.8</v>
+      </c>
+      <c r="F3141" t="n">
+        <v>38233.45</v>
+      </c>
+      <c r="G3141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3141" t="n">
+        <v>38231.67763972918</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" s="1" t="n">
+        <v>3140</v>
+      </c>
+      <c r="B3142" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3142" t="n">
+        <v>38233.4</v>
+      </c>
+      <c r="D3142" t="n">
+        <v>38235.85</v>
+      </c>
+      <c r="E3142" t="n">
+        <v>38161.3</v>
+      </c>
+      <c r="F3142" t="n">
+        <v>38198.4</v>
+      </c>
+      <c r="G3142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3142" t="n">
+        <v>38220.58509315279</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" s="1" t="n">
+        <v>3141</v>
+      </c>
+      <c r="B3143" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="C3143" t="n">
+        <v>38196.45</v>
+      </c>
+      <c r="D3143" t="n">
+        <v>38225.6</v>
+      </c>
+      <c r="E3143" t="n">
+        <v>38191.65</v>
+      </c>
+      <c r="F3143" t="n">
+        <v>38207.75</v>
+      </c>
+      <c r="G3143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3143" t="n">
+        <v>38216.30672876853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bank_nifty_stats_report.xlsx
+++ b/bank_nifty_stats_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3150"/>
+  <dimension ref="A1:H3289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82340,6 +82340,3620 @@
         <v>38257.40450101907</v>
       </c>
     </row>
+    <row r="3151">
+      <c r="A3151" s="1" t="n">
+        <v>3149</v>
+      </c>
+      <c r="B3151" s="2" t="n">
+        <v>44579</v>
+      </c>
+      <c r="C3151" t="n">
+        <v>38223.6</v>
+      </c>
+      <c r="D3151" t="n">
+        <v>38242.2</v>
+      </c>
+      <c r="E3151" t="n">
+        <v>38200.35</v>
+      </c>
+      <c r="F3151" t="n">
+        <v>38214.8</v>
+      </c>
+      <c r="G3151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3151" t="n">
+        <v>38243.20300067939</v>
+      </c>
+    </row>
+    <row r="3152">
+      <c r="A3152" s="1" t="n">
+        <v>3150</v>
+      </c>
+      <c r="B3152" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3152" t="n">
+        <v>38145.75</v>
+      </c>
+      <c r="D3152" t="n">
+        <v>38145.75</v>
+      </c>
+      <c r="E3152" t="n">
+        <v>37905</v>
+      </c>
+      <c r="F3152" t="n">
+        <v>37995.4</v>
+      </c>
+      <c r="G3152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3152" t="n">
+        <v>38160.60200045293</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" s="1" t="n">
+        <v>3151</v>
+      </c>
+      <c r="B3153" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3153" t="n">
+        <v>38006.95</v>
+      </c>
+      <c r="D3153" t="n">
+        <v>38130.5</v>
+      </c>
+      <c r="E3153" t="n">
+        <v>37959.8</v>
+      </c>
+      <c r="F3153" t="n">
+        <v>38069.2</v>
+      </c>
+      <c r="G3153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3153" t="n">
+        <v>38130.13466696862</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" s="1" t="n">
+        <v>3152</v>
+      </c>
+      <c r="B3154" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3154" t="n">
+        <v>38057.9</v>
+      </c>
+      <c r="D3154" t="n">
+        <v>38170.55</v>
+      </c>
+      <c r="E3154" t="n">
+        <v>38057.9</v>
+      </c>
+      <c r="F3154" t="n">
+        <v>38139.55</v>
+      </c>
+      <c r="G3154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3154" t="n">
+        <v>38133.27311131242</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" s="1" t="n">
+        <v>3153</v>
+      </c>
+      <c r="B3155" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3155" t="n">
+        <v>38141.1</v>
+      </c>
+      <c r="D3155" t="n">
+        <v>38157.05</v>
+      </c>
+      <c r="E3155" t="n">
+        <v>38039.6</v>
+      </c>
+      <c r="F3155" t="n">
+        <v>38051.65</v>
+      </c>
+      <c r="G3155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3155" t="n">
+        <v>38106.06540754162</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" s="1" t="n">
+        <v>3154</v>
+      </c>
+      <c r="B3156" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3156" t="n">
+        <v>38050.9</v>
+      </c>
+      <c r="D3156" t="n">
+        <v>38055.1</v>
+      </c>
+      <c r="E3156" t="n">
+        <v>37941.3</v>
+      </c>
+      <c r="F3156" t="n">
+        <v>37970.6</v>
+      </c>
+      <c r="G3156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3156" t="n">
+        <v>38060.91027169441</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" s="1" t="n">
+        <v>3155</v>
+      </c>
+      <c r="B3157" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3157" t="n">
+        <v>37961.95</v>
+      </c>
+      <c r="D3157" t="n">
+        <v>38052.6</v>
+      </c>
+      <c r="E3157" t="n">
+        <v>37941.85</v>
+      </c>
+      <c r="F3157" t="n">
+        <v>37960</v>
+      </c>
+      <c r="G3157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3157" t="n">
+        <v>38027.27351446294</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" s="1" t="n">
+        <v>3156</v>
+      </c>
+      <c r="B3158" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3158" t="n">
+        <v>37960.4</v>
+      </c>
+      <c r="D3158" t="n">
+        <v>38078</v>
+      </c>
+      <c r="E3158" t="n">
+        <v>37955.3</v>
+      </c>
+      <c r="F3158" t="n">
+        <v>38068.65</v>
+      </c>
+      <c r="G3158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3158" t="n">
+        <v>38041.06567630863</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" s="1" t="n">
+        <v>3157</v>
+      </c>
+      <c r="B3159" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3159" t="n">
+        <v>38067.4</v>
+      </c>
+      <c r="D3159" t="n">
+        <v>38085.6</v>
+      </c>
+      <c r="E3159" t="n">
+        <v>38045.1</v>
+      </c>
+      <c r="F3159" t="n">
+        <v>38067.55</v>
+      </c>
+      <c r="G3159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3159" t="n">
+        <v>38049.89378420576</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" s="1" t="n">
+        <v>3158</v>
+      </c>
+      <c r="B3160" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3160" t="n">
+        <v>38065.75</v>
+      </c>
+      <c r="D3160" t="n">
+        <v>38163.3</v>
+      </c>
+      <c r="E3160" t="n">
+        <v>38065.25</v>
+      </c>
+      <c r="F3160" t="n">
+        <v>38156.95</v>
+      </c>
+      <c r="G3160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3160" t="n">
+        <v>38085.5791894705</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" s="1" t="n">
+        <v>3159</v>
+      </c>
+      <c r="B3161" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3161" t="n">
+        <v>38157.15</v>
+      </c>
+      <c r="D3161" t="n">
+        <v>38167.8</v>
+      </c>
+      <c r="E3161" t="n">
+        <v>38096.45</v>
+      </c>
+      <c r="F3161" t="n">
+        <v>38154.9</v>
+      </c>
+      <c r="G3161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3161" t="n">
+        <v>38108.68612631367</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" s="1" t="n">
+        <v>3160</v>
+      </c>
+      <c r="B3162" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3162" t="n">
+        <v>38152</v>
+      </c>
+      <c r="D3162" t="n">
+        <v>38170</v>
+      </c>
+      <c r="E3162" t="n">
+        <v>38112.15</v>
+      </c>
+      <c r="F3162" t="n">
+        <v>38147.8</v>
+      </c>
+      <c r="G3162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3162" t="n">
+        <v>38121.72408420911</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" s="1" t="n">
+        <v>3161</v>
+      </c>
+      <c r="B3163" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3163" t="n">
+        <v>38149.65</v>
+      </c>
+      <c r="D3163" t="n">
+        <v>38163.4</v>
+      </c>
+      <c r="E3163" t="n">
+        <v>38117.25</v>
+      </c>
+      <c r="F3163" t="n">
+        <v>38160</v>
+      </c>
+      <c r="G3163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3163" t="n">
+        <v>38134.48272280607</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" s="1" t="n">
+        <v>3162</v>
+      </c>
+      <c r="B3164" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3164" t="n">
+        <v>38165.65</v>
+      </c>
+      <c r="D3164" t="n">
+        <v>38328</v>
+      </c>
+      <c r="E3164" t="n">
+        <v>38165.65</v>
+      </c>
+      <c r="F3164" t="n">
+        <v>38283.2</v>
+      </c>
+      <c r="G3164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3164" t="n">
+        <v>38184.05514853739</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" s="1" t="n">
+        <v>3163</v>
+      </c>
+      <c r="B3165" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3165" t="n">
+        <v>38290.05</v>
+      </c>
+      <c r="D3165" t="n">
+        <v>38305.15</v>
+      </c>
+      <c r="E3165" t="n">
+        <v>38171</v>
+      </c>
+      <c r="F3165" t="n">
+        <v>38171</v>
+      </c>
+      <c r="G3165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3165" t="n">
+        <v>38179.70343235826</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" s="1" t="n">
+        <v>3164</v>
+      </c>
+      <c r="B3166" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3166" t="n">
+        <v>38173.15</v>
+      </c>
+      <c r="D3166" t="n">
+        <v>38197.1</v>
+      </c>
+      <c r="E3166" t="n">
+        <v>38132</v>
+      </c>
+      <c r="F3166" t="n">
+        <v>38177.75</v>
+      </c>
+      <c r="G3166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3166" t="n">
+        <v>38179.05228823885</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" s="1" t="n">
+        <v>3165</v>
+      </c>
+      <c r="B3167" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3167" t="n">
+        <v>38177.45</v>
+      </c>
+      <c r="D3167" t="n">
+        <v>38203.35</v>
+      </c>
+      <c r="E3167" t="n">
+        <v>38147.15</v>
+      </c>
+      <c r="F3167" t="n">
+        <v>38149.15</v>
+      </c>
+      <c r="G3167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3167" t="n">
+        <v>38169.0848588259</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" s="1" t="n">
+        <v>3166</v>
+      </c>
+      <c r="B3168" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3168" t="n">
+        <v>38147.65</v>
+      </c>
+      <c r="D3168" t="n">
+        <v>38162.7</v>
+      </c>
+      <c r="E3168" t="n">
+        <v>38139.05</v>
+      </c>
+      <c r="F3168" t="n">
+        <v>38161.45</v>
+      </c>
+      <c r="G3168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3168" t="n">
+        <v>38166.53990588394</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" s="1" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B3169" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3169" t="n">
+        <v>38160.55</v>
+      </c>
+      <c r="D3169" t="n">
+        <v>38214.45</v>
+      </c>
+      <c r="E3169" t="n">
+        <v>38154.65</v>
+      </c>
+      <c r="F3169" t="n">
+        <v>38173.9</v>
+      </c>
+      <c r="G3169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3169" t="n">
+        <v>38168.99327058929</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" s="1" t="n">
+        <v>3168</v>
+      </c>
+      <c r="B3170" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3170" t="n">
+        <v>38173.6</v>
+      </c>
+      <c r="D3170" t="n">
+        <v>38196</v>
+      </c>
+      <c r="E3170" t="n">
+        <v>38096.45</v>
+      </c>
+      <c r="F3170" t="n">
+        <v>38110.65</v>
+      </c>
+      <c r="G3170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3170" t="n">
+        <v>38149.5455137262</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" s="1" t="n">
+        <v>3169</v>
+      </c>
+      <c r="B3171" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3171" t="n">
+        <v>38105.95</v>
+      </c>
+      <c r="D3171" t="n">
+        <v>38108.8</v>
+      </c>
+      <c r="E3171" t="n">
+        <v>38053.05</v>
+      </c>
+      <c r="F3171" t="n">
+        <v>38058.05</v>
+      </c>
+      <c r="G3171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3171" t="n">
+        <v>38119.0470091508</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" s="1" t="n">
+        <v>3170</v>
+      </c>
+      <c r="B3172" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3172" t="n">
+        <v>38056.9</v>
+      </c>
+      <c r="D3172" t="n">
+        <v>38076.5</v>
+      </c>
+      <c r="E3172" t="n">
+        <v>38023.9</v>
+      </c>
+      <c r="F3172" t="n">
+        <v>38036.8</v>
+      </c>
+      <c r="G3172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3172" t="n">
+        <v>38091.63133943387</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" s="1" t="n">
+        <v>3171</v>
+      </c>
+      <c r="B3173" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3173" t="n">
+        <v>38036.9</v>
+      </c>
+      <c r="D3173" t="n">
+        <v>38074.15</v>
+      </c>
+      <c r="E3173" t="n">
+        <v>38024.65</v>
+      </c>
+      <c r="F3173" t="n">
+        <v>38046.3</v>
+      </c>
+      <c r="G3173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3173" t="n">
+        <v>38076.52089295592</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" s="1" t="n">
+        <v>3172</v>
+      </c>
+      <c r="B3174" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3174" t="n">
+        <v>38044.9</v>
+      </c>
+      <c r="D3174" t="n">
+        <v>38101.7</v>
+      </c>
+      <c r="E3174" t="n">
+        <v>38034.55</v>
+      </c>
+      <c r="F3174" t="n">
+        <v>38095.9</v>
+      </c>
+      <c r="G3174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3174" t="n">
+        <v>38082.98059530395</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" s="1" t="n">
+        <v>3173</v>
+      </c>
+      <c r="B3175" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3175" t="n">
+        <v>38088.75</v>
+      </c>
+      <c r="D3175" t="n">
+        <v>38111.35</v>
+      </c>
+      <c r="E3175" t="n">
+        <v>38069.5</v>
+      </c>
+      <c r="F3175" t="n">
+        <v>38083.3</v>
+      </c>
+      <c r="G3175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3175" t="n">
+        <v>38083.08706353597</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" s="1" t="n">
+        <v>3174</v>
+      </c>
+      <c r="B3176" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3176" t="n">
+        <v>38080.5</v>
+      </c>
+      <c r="D3176" t="n">
+        <v>38082</v>
+      </c>
+      <c r="E3176" t="n">
+        <v>37994.75</v>
+      </c>
+      <c r="F3176" t="n">
+        <v>37994.75</v>
+      </c>
+      <c r="G3176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3176" t="n">
+        <v>38053.64137569065</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" s="1" t="n">
+        <v>3175</v>
+      </c>
+      <c r="B3177" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3177" t="n">
+        <v>37994.55</v>
+      </c>
+      <c r="D3177" t="n">
+        <v>38026.1</v>
+      </c>
+      <c r="E3177" t="n">
+        <v>37975.65</v>
+      </c>
+      <c r="F3177" t="n">
+        <v>38014.6</v>
+      </c>
+      <c r="G3177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3177" t="n">
+        <v>38040.62758379377</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" s="1" t="n">
+        <v>3176</v>
+      </c>
+      <c r="B3178" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3178" t="n">
+        <v>38020.15</v>
+      </c>
+      <c r="D3178" t="n">
+        <v>38097.75</v>
+      </c>
+      <c r="E3178" t="n">
+        <v>38016.5</v>
+      </c>
+      <c r="F3178" t="n">
+        <v>38092</v>
+      </c>
+      <c r="G3178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3178" t="n">
+        <v>38057.75172252918</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" s="1" t="n">
+        <v>3177</v>
+      </c>
+      <c r="B3179" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3179" t="n">
+        <v>38089.6</v>
+      </c>
+      <c r="D3179" t="n">
+        <v>38131.4</v>
+      </c>
+      <c r="E3179" t="n">
+        <v>38047.1</v>
+      </c>
+      <c r="F3179" t="n">
+        <v>38131.4</v>
+      </c>
+      <c r="G3179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3179" t="n">
+        <v>38082.3011483528</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" s="1" t="n">
+        <v>3178</v>
+      </c>
+      <c r="B3180" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3180" t="n">
+        <v>38128.95</v>
+      </c>
+      <c r="D3180" t="n">
+        <v>38139.15</v>
+      </c>
+      <c r="E3180" t="n">
+        <v>38103.6</v>
+      </c>
+      <c r="F3180" t="n">
+        <v>38114.75</v>
+      </c>
+      <c r="G3180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3180" t="n">
+        <v>38093.1174322352</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" s="1" t="n">
+        <v>3179</v>
+      </c>
+      <c r="B3181" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3181" t="n">
+        <v>38115.7</v>
+      </c>
+      <c r="D3181" t="n">
+        <v>38130.1</v>
+      </c>
+      <c r="E3181" t="n">
+        <v>38099.35</v>
+      </c>
+      <c r="F3181" t="n">
+        <v>38103.65</v>
+      </c>
+      <c r="G3181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3181" t="n">
+        <v>38096.6282881568</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" s="1" t="n">
+        <v>3180</v>
+      </c>
+      <c r="B3182" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3182" t="n">
+        <v>38104.55</v>
+      </c>
+      <c r="D3182" t="n">
+        <v>38150.8</v>
+      </c>
+      <c r="E3182" t="n">
+        <v>38078.1</v>
+      </c>
+      <c r="F3182" t="n">
+        <v>38138.55</v>
+      </c>
+      <c r="G3182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3182" t="n">
+        <v>38110.60219210454</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" s="1" t="n">
+        <v>3181</v>
+      </c>
+      <c r="B3183" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>38138.15</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>38152.35</v>
+      </c>
+      <c r="E3183" t="n">
+        <v>38109.75</v>
+      </c>
+      <c r="F3183" t="n">
+        <v>38112.25</v>
+      </c>
+      <c r="G3183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3183" t="n">
+        <v>38111.15146140303</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" s="1" t="n">
+        <v>3182</v>
+      </c>
+      <c r="B3184" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3184" t="n">
+        <v>38111.3</v>
+      </c>
+      <c r="D3184" t="n">
+        <v>38113.5</v>
+      </c>
+      <c r="E3184" t="n">
+        <v>38072.05</v>
+      </c>
+      <c r="F3184" t="n">
+        <v>38081.75</v>
+      </c>
+      <c r="G3184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3184" t="n">
+        <v>38101.35097426869</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" s="1" t="n">
+        <v>3183</v>
+      </c>
+      <c r="B3185" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3185" t="n">
+        <v>38082.2</v>
+      </c>
+      <c r="D3185" t="n">
+        <v>38122.3</v>
+      </c>
+      <c r="E3185" t="n">
+        <v>38064.65</v>
+      </c>
+      <c r="F3185" t="n">
+        <v>38072.95</v>
+      </c>
+      <c r="G3185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3185" t="n">
+        <v>38091.88398284579</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" s="1" t="n">
+        <v>3184</v>
+      </c>
+      <c r="B3186" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3186" t="n">
+        <v>38075.1</v>
+      </c>
+      <c r="D3186" t="n">
+        <v>38076.7</v>
+      </c>
+      <c r="E3186" t="n">
+        <v>38016.6</v>
+      </c>
+      <c r="F3186" t="n">
+        <v>38018.55</v>
+      </c>
+      <c r="G3186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3186" t="n">
+        <v>38067.4393218972</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" s="1" t="n">
+        <v>3185</v>
+      </c>
+      <c r="B3187" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3187" t="n">
+        <v>38019.1</v>
+      </c>
+      <c r="D3187" t="n">
+        <v>38026.8</v>
+      </c>
+      <c r="E3187" t="n">
+        <v>37984.6</v>
+      </c>
+      <c r="F3187" t="n">
+        <v>37986.35</v>
+      </c>
+      <c r="G3187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3187" t="n">
+        <v>38040.40954793146</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" s="1" t="n">
+        <v>3186</v>
+      </c>
+      <c r="B3188" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3188" t="n">
+        <v>37984.9</v>
+      </c>
+      <c r="D3188" t="n">
+        <v>38054.25</v>
+      </c>
+      <c r="E3188" t="n">
+        <v>37966.4</v>
+      </c>
+      <c r="F3188" t="n">
+        <v>38036.4</v>
+      </c>
+      <c r="G3188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3188" t="n">
+        <v>38039.07303195431</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" s="1" t="n">
+        <v>3187</v>
+      </c>
+      <c r="B3189" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3189" t="n">
+        <v>38039.25</v>
+      </c>
+      <c r="D3189" t="n">
+        <v>38052.55</v>
+      </c>
+      <c r="E3189" t="n">
+        <v>38017.6</v>
+      </c>
+      <c r="F3189" t="n">
+        <v>38033.7</v>
+      </c>
+      <c r="G3189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3189" t="n">
+        <v>38037.28202130288</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" s="1" t="n">
+        <v>3188</v>
+      </c>
+      <c r="B3190" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>38029.95</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>38032.85</v>
+      </c>
+      <c r="E3190" t="n">
+        <v>37980.8</v>
+      </c>
+      <c r="F3190" t="n">
+        <v>37980.8</v>
+      </c>
+      <c r="G3190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3190" t="n">
+        <v>38018.45468086858</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" s="1" t="n">
+        <v>3189</v>
+      </c>
+      <c r="B3191" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3191" t="n">
+        <v>37979.8</v>
+      </c>
+      <c r="D3191" t="n">
+        <v>37981.8</v>
+      </c>
+      <c r="E3191" t="n">
+        <v>37883.3</v>
+      </c>
+      <c r="F3191" t="n">
+        <v>37905.65</v>
+      </c>
+      <c r="G3191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3191" t="n">
+        <v>37980.85312057906</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" s="1" t="n">
+        <v>3190</v>
+      </c>
+      <c r="B3192" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3192" t="n">
+        <v>37904.8</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>37925.65</v>
+      </c>
+      <c r="E3192" t="n">
+        <v>37871.45</v>
+      </c>
+      <c r="F3192" t="n">
+        <v>37873.55</v>
+      </c>
+      <c r="G3192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3192" t="n">
+        <v>37945.08541371938</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" s="1" t="n">
+        <v>3191</v>
+      </c>
+      <c r="B3193" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3193" t="n">
+        <v>37876.3</v>
+      </c>
+      <c r="D3193" t="n">
+        <v>37893.8</v>
+      </c>
+      <c r="E3193" t="n">
+        <v>37823.75</v>
+      </c>
+      <c r="F3193" t="n">
+        <v>37841.6</v>
+      </c>
+      <c r="G3193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3193" t="n">
+        <v>37910.59027581292</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" s="1" t="n">
+        <v>3192</v>
+      </c>
+      <c r="B3194" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3194" t="n">
+        <v>37838.7</v>
+      </c>
+      <c r="D3194" t="n">
+        <v>37873.65</v>
+      </c>
+      <c r="E3194" t="n">
+        <v>37810.65</v>
+      </c>
+      <c r="F3194" t="n">
+        <v>37814.1</v>
+      </c>
+      <c r="G3194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3194" t="n">
+        <v>37878.42685054195</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" s="1" t="n">
+        <v>3193</v>
+      </c>
+      <c r="B3195" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3195" t="n">
+        <v>37813.55</v>
+      </c>
+      <c r="D3195" t="n">
+        <v>37861.75</v>
+      </c>
+      <c r="E3195" t="n">
+        <v>37799.6</v>
+      </c>
+      <c r="F3195" t="n">
+        <v>37837.2</v>
+      </c>
+      <c r="G3195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3195" t="n">
+        <v>37864.68456702797</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" s="1" t="n">
+        <v>3194</v>
+      </c>
+      <c r="B3196" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3196" t="n">
+        <v>37838.15</v>
+      </c>
+      <c r="D3196" t="n">
+        <v>37876.6</v>
+      </c>
+      <c r="E3196" t="n">
+        <v>37808.8</v>
+      </c>
+      <c r="F3196" t="n">
+        <v>37830.55</v>
+      </c>
+      <c r="G3196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3196" t="n">
+        <v>37853.30637801865</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" s="1" t="n">
+        <v>3195</v>
+      </c>
+      <c r="B3197" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3197" t="n">
+        <v>37836.15</v>
+      </c>
+      <c r="D3197" t="n">
+        <v>37865.3</v>
+      </c>
+      <c r="E3197" t="n">
+        <v>37806.6</v>
+      </c>
+      <c r="F3197" t="n">
+        <v>37830.45</v>
+      </c>
+      <c r="G3197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3197" t="n">
+        <v>37845.68758534577</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" s="1" t="n">
+        <v>3196</v>
+      </c>
+      <c r="B3198" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3198" t="n">
+        <v>37830.75</v>
+      </c>
+      <c r="D3198" t="n">
+        <v>37928.15</v>
+      </c>
+      <c r="E3198" t="n">
+        <v>37825.7</v>
+      </c>
+      <c r="F3198" t="n">
+        <v>37902.7</v>
+      </c>
+      <c r="G3198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3198" t="n">
+        <v>37864.69172356385</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" s="1" t="n">
+        <v>3197</v>
+      </c>
+      <c r="B3199" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3199" t="n">
+        <v>37902.5</v>
+      </c>
+      <c r="D3199" t="n">
+        <v>37969.45</v>
+      </c>
+      <c r="E3199" t="n">
+        <v>37887.1</v>
+      </c>
+      <c r="F3199" t="n">
+        <v>37951.6</v>
+      </c>
+      <c r="G3199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3199" t="n">
+        <v>37893.66114904257</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" s="1" t="n">
+        <v>3198</v>
+      </c>
+      <c r="B3200" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3200" t="n">
+        <v>37952.5</v>
+      </c>
+      <c r="D3200" t="n">
+        <v>37995.3</v>
+      </c>
+      <c r="E3200" t="n">
+        <v>37925</v>
+      </c>
+      <c r="F3200" t="n">
+        <v>37989.35</v>
+      </c>
+      <c r="G3200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3200" t="n">
+        <v>37925.55743269504</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" s="1" t="n">
+        <v>3199</v>
+      </c>
+      <c r="B3201" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3201" t="n">
+        <v>37987.45</v>
+      </c>
+      <c r="D3201" t="n">
+        <v>37989.3</v>
+      </c>
+      <c r="E3201" t="n">
+        <v>37912.2</v>
+      </c>
+      <c r="F3201" t="n">
+        <v>37923.65</v>
+      </c>
+      <c r="G3201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3201" t="n">
+        <v>37924.9216217967</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" s="1" t="n">
+        <v>3200</v>
+      </c>
+      <c r="B3202" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3202" t="n">
+        <v>37923.75</v>
+      </c>
+      <c r="D3202" t="n">
+        <v>37959</v>
+      </c>
+      <c r="E3202" t="n">
+        <v>37896.9</v>
+      </c>
+      <c r="F3202" t="n">
+        <v>37906.2</v>
+      </c>
+      <c r="G3202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3202" t="n">
+        <v>37918.68108119781</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" s="1" t="n">
+        <v>3201</v>
+      </c>
+      <c r="B3203" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3203" t="n">
+        <v>37906.5</v>
+      </c>
+      <c r="D3203" t="n">
+        <v>37930.75</v>
+      </c>
+      <c r="E3203" t="n">
+        <v>37836.6</v>
+      </c>
+      <c r="F3203" t="n">
+        <v>37845.8</v>
+      </c>
+      <c r="G3203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3203" t="n">
+        <v>37894.38738746521</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" s="1" t="n">
+        <v>3202</v>
+      </c>
+      <c r="B3204" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3204" t="n">
+        <v>37849.7</v>
+      </c>
+      <c r="D3204" t="n">
+        <v>37864.45</v>
+      </c>
+      <c r="E3204" t="n">
+        <v>37801.55</v>
+      </c>
+      <c r="F3204" t="n">
+        <v>37864.2</v>
+      </c>
+      <c r="G3204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3204" t="n">
+        <v>37884.32492497681</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" s="1" t="n">
+        <v>3203</v>
+      </c>
+      <c r="B3205" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3205" t="n">
+        <v>37858.9</v>
+      </c>
+      <c r="D3205" t="n">
+        <v>37905.75</v>
+      </c>
+      <c r="E3205" t="n">
+        <v>37836.5</v>
+      </c>
+      <c r="F3205" t="n">
+        <v>37864.25</v>
+      </c>
+      <c r="G3205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3205" t="n">
+        <v>37877.63328331787</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" s="1" t="n">
+        <v>3204</v>
+      </c>
+      <c r="B3206" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3206" t="n">
+        <v>37864.8</v>
+      </c>
+      <c r="D3206" t="n">
+        <v>37867.2</v>
+      </c>
+      <c r="E3206" t="n">
+        <v>37772.2</v>
+      </c>
+      <c r="F3206" t="n">
+        <v>37787.8</v>
+      </c>
+      <c r="G3206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3206" t="n">
+        <v>37847.68885554525</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" s="1" t="n">
+        <v>3205</v>
+      </c>
+      <c r="B3207" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3207" t="n">
+        <v>37787.75</v>
+      </c>
+      <c r="D3207" t="n">
+        <v>37843.75</v>
+      </c>
+      <c r="E3207" t="n">
+        <v>37787.75</v>
+      </c>
+      <c r="F3207" t="n">
+        <v>37830.4</v>
+      </c>
+      <c r="G3207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3207" t="n">
+        <v>37841.92590369684</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" s="1" t="n">
+        <v>3206</v>
+      </c>
+      <c r="B3208" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3208" t="n">
+        <v>37830.1</v>
+      </c>
+      <c r="D3208" t="n">
+        <v>37873.95</v>
+      </c>
+      <c r="E3208" t="n">
+        <v>37816.3</v>
+      </c>
+      <c r="F3208" t="n">
+        <v>37834.2</v>
+      </c>
+      <c r="G3208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3208" t="n">
+        <v>37839.35060246456</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" s="1" t="n">
+        <v>3207</v>
+      </c>
+      <c r="B3209" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3209" t="n">
+        <v>37835.65</v>
+      </c>
+      <c r="D3209" t="n">
+        <v>37918</v>
+      </c>
+      <c r="E3209" t="n">
+        <v>37825</v>
+      </c>
+      <c r="F3209" t="n">
+        <v>37902.05</v>
+      </c>
+      <c r="G3209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3209" t="n">
+        <v>37860.25040164305</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" s="1" t="n">
+        <v>3208</v>
+      </c>
+      <c r="B3210" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3210" t="n">
+        <v>37897.75</v>
+      </c>
+      <c r="D3210" t="n">
+        <v>37960</v>
+      </c>
+      <c r="E3210" t="n">
+        <v>37885.85</v>
+      </c>
+      <c r="F3210" t="n">
+        <v>37892.8</v>
+      </c>
+      <c r="G3210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3210" t="n">
+        <v>37871.10026776203</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" s="1" t="n">
+        <v>3209</v>
+      </c>
+      <c r="B3211" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3211" t="n">
+        <v>37892.8</v>
+      </c>
+      <c r="D3211" t="n">
+        <v>37934.7</v>
+      </c>
+      <c r="E3211" t="n">
+        <v>37863.85</v>
+      </c>
+      <c r="F3211" t="n">
+        <v>37921.65</v>
+      </c>
+      <c r="G3211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3211" t="n">
+        <v>37887.95017850802</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" s="1" t="n">
+        <v>3210</v>
+      </c>
+      <c r="B3212" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3212" t="n">
+        <v>37919.05</v>
+      </c>
+      <c r="D3212" t="n">
+        <v>37952.65</v>
+      </c>
+      <c r="E3212" t="n">
+        <v>37889.35</v>
+      </c>
+      <c r="F3212" t="n">
+        <v>37903.8</v>
+      </c>
+      <c r="G3212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3212" t="n">
+        <v>37893.23345233868</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" s="1" t="n">
+        <v>3211</v>
+      </c>
+      <c r="B3213" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3213" t="n">
+        <v>37904.7</v>
+      </c>
+      <c r="D3213" t="n">
+        <v>37921</v>
+      </c>
+      <c r="E3213" t="n">
+        <v>37856.85</v>
+      </c>
+      <c r="F3213" t="n">
+        <v>37856.85</v>
+      </c>
+      <c r="G3213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3213" t="n">
+        <v>37881.10563489245</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" s="1" t="n">
+        <v>3212</v>
+      </c>
+      <c r="B3214" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3214" t="n">
+        <v>37858.25</v>
+      </c>
+      <c r="D3214" t="n">
+        <v>37915.6</v>
+      </c>
+      <c r="E3214" t="n">
+        <v>37858</v>
+      </c>
+      <c r="F3214" t="n">
+        <v>37913.7</v>
+      </c>
+      <c r="G3214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3214" t="n">
+        <v>37891.97042326164</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" s="1" t="n">
+        <v>3213</v>
+      </c>
+      <c r="B3215" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3215" t="n">
+        <v>37912.2</v>
+      </c>
+      <c r="D3215" t="n">
+        <v>37976.5</v>
+      </c>
+      <c r="E3215" t="n">
+        <v>37901</v>
+      </c>
+      <c r="F3215" t="n">
+        <v>37976.5</v>
+      </c>
+      <c r="G3215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3215" t="n">
+        <v>37920.14694884109</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" s="1" t="n">
+        <v>3214</v>
+      </c>
+      <c r="B3216" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3216" t="n">
+        <v>37971.65</v>
+      </c>
+      <c r="D3216" t="n">
+        <v>38061.7</v>
+      </c>
+      <c r="E3216" t="n">
+        <v>37940.9</v>
+      </c>
+      <c r="F3216" t="n">
+        <v>38032.85</v>
+      </c>
+      <c r="G3216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3216" t="n">
+        <v>37957.71463256073</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" s="1" t="n">
+        <v>3215</v>
+      </c>
+      <c r="B3217" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3217" t="n">
+        <v>38027.65</v>
+      </c>
+      <c r="D3217" t="n">
+        <v>38140.3</v>
+      </c>
+      <c r="E3217" t="n">
+        <v>38027.65</v>
+      </c>
+      <c r="F3217" t="n">
+        <v>38110.1</v>
+      </c>
+      <c r="G3217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3217" t="n">
+        <v>38008.50975504049</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" s="1" t="n">
+        <v>3216</v>
+      </c>
+      <c r="B3218" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3218" t="n">
+        <v>38109.6</v>
+      </c>
+      <c r="D3218" t="n">
+        <v>38134.7</v>
+      </c>
+      <c r="E3218" t="n">
+        <v>38065.4</v>
+      </c>
+      <c r="F3218" t="n">
+        <v>38095.85</v>
+      </c>
+      <c r="G3218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3218" t="n">
+        <v>38037.62317002699</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" s="1" t="n">
+        <v>3217</v>
+      </c>
+      <c r="B3219" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3219" t="n">
+        <v>38093.35</v>
+      </c>
+      <c r="D3219" t="n">
+        <v>38096.6</v>
+      </c>
+      <c r="E3219" t="n">
+        <v>37997.75</v>
+      </c>
+      <c r="F3219" t="n">
+        <v>38025.35</v>
+      </c>
+      <c r="G3219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3219" t="n">
+        <v>38033.53211335133</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" s="1" t="n">
+        <v>3218</v>
+      </c>
+      <c r="B3220" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3220" t="n">
+        <v>38023.5</v>
+      </c>
+      <c r="D3220" t="n">
+        <v>38055.9</v>
+      </c>
+      <c r="E3220" t="n">
+        <v>38004.85</v>
+      </c>
+      <c r="F3220" t="n">
+        <v>38040.5</v>
+      </c>
+      <c r="G3220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3220" t="n">
+        <v>38035.85474223422</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" s="1" t="n">
+        <v>3219</v>
+      </c>
+      <c r="B3221" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3221" t="n">
+        <v>38039.65</v>
+      </c>
+      <c r="D3221" t="n">
+        <v>38102.45</v>
+      </c>
+      <c r="E3221" t="n">
+        <v>38036.4</v>
+      </c>
+      <c r="F3221" t="n">
+        <v>38079.65</v>
+      </c>
+      <c r="G3221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3221" t="n">
+        <v>38050.45316148948</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" s="1" t="n">
+        <v>3220</v>
+      </c>
+      <c r="B3222" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3222" t="n">
+        <v>38080.5</v>
+      </c>
+      <c r="D3222" t="n">
+        <v>38088.25</v>
+      </c>
+      <c r="E3222" t="n">
+        <v>38039.75</v>
+      </c>
+      <c r="F3222" t="n">
+        <v>38050.85</v>
+      </c>
+      <c r="G3222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3222" t="n">
+        <v>38050.58544099299</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" s="1" t="n">
+        <v>3221</v>
+      </c>
+      <c r="B3223" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3223" t="n">
+        <v>38050.25</v>
+      </c>
+      <c r="D3223" t="n">
+        <v>38067.75</v>
+      </c>
+      <c r="E3223" t="n">
+        <v>38033.25</v>
+      </c>
+      <c r="F3223" t="n">
+        <v>38061.15</v>
+      </c>
+      <c r="G3223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3223" t="n">
+        <v>38054.10696066199</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" s="1" t="n">
+        <v>3222</v>
+      </c>
+      <c r="B3224" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3224" t="n">
+        <v>38060.8</v>
+      </c>
+      <c r="D3224" t="n">
+        <v>38066.65</v>
+      </c>
+      <c r="E3224" t="n">
+        <v>37968.85</v>
+      </c>
+      <c r="F3224" t="n">
+        <v>37976.65</v>
+      </c>
+      <c r="G3224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3224" t="n">
+        <v>38028.28797377466</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" s="1" t="n">
+        <v>3223</v>
+      </c>
+      <c r="B3225" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3225" t="n">
+        <v>37976.5</v>
+      </c>
+      <c r="D3225" t="n">
+        <v>38039.8</v>
+      </c>
+      <c r="E3225" t="n">
+        <v>37972.15</v>
+      </c>
+      <c r="F3225" t="n">
+        <v>38039.8</v>
+      </c>
+      <c r="G3225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3225" t="n">
+        <v>38032.12531584978</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" s="1" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B3226" s="2" t="n">
+        <v>44580</v>
+      </c>
+      <c r="C3226" t="n">
+        <v>38041.6</v>
+      </c>
+      <c r="D3226" t="n">
+        <v>38091</v>
+      </c>
+      <c r="E3226" t="n">
+        <v>38038.75</v>
+      </c>
+      <c r="F3226" t="n">
+        <v>38058.85</v>
+      </c>
+      <c r="G3226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3226" t="n">
+        <v>38041.03354389986</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" s="1" t="n">
+        <v>3225</v>
+      </c>
+      <c r="B3227" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3227" t="n">
+        <v>38106.1</v>
+      </c>
+      <c r="D3227" t="n">
+        <v>38133</v>
+      </c>
+      <c r="E3227" t="n">
+        <v>38014.95</v>
+      </c>
+      <c r="F3227" t="n">
+        <v>38093.3</v>
+      </c>
+      <c r="G3227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3227" t="n">
+        <v>38058.45569593324</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" s="1" t="n">
+        <v>3226</v>
+      </c>
+      <c r="B3228" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3228" t="n">
+        <v>38091.85</v>
+      </c>
+      <c r="D3228" t="n">
+        <v>38108.35</v>
+      </c>
+      <c r="E3228" t="n">
+        <v>38011.6</v>
+      </c>
+      <c r="F3228" t="n">
+        <v>38034.35</v>
+      </c>
+      <c r="G3228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3228" t="n">
+        <v>38050.4204639555</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" s="1" t="n">
+        <v>3227</v>
+      </c>
+      <c r="B3229" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3229" t="n">
+        <v>38032.75</v>
+      </c>
+      <c r="D3229" t="n">
+        <v>38072.1</v>
+      </c>
+      <c r="E3229" t="n">
+        <v>38017.75</v>
+      </c>
+      <c r="F3229" t="n">
+        <v>38058.3</v>
+      </c>
+      <c r="G3229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3229" t="n">
+        <v>38053.04697597033</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" s="1" t="n">
+        <v>3228</v>
+      </c>
+      <c r="B3230" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3230" t="n">
+        <v>38058.05</v>
+      </c>
+      <c r="D3230" t="n">
+        <v>38133.75</v>
+      </c>
+      <c r="E3230" t="n">
+        <v>38057.55</v>
+      </c>
+      <c r="F3230" t="n">
+        <v>38133.75</v>
+      </c>
+      <c r="G3230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3230" t="n">
+        <v>38079.94798398022</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" s="1" t="n">
+        <v>3229</v>
+      </c>
+      <c r="B3231" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3231" t="n">
+        <v>38130.85</v>
+      </c>
+      <c r="D3231" t="n">
+        <v>38166.45</v>
+      </c>
+      <c r="E3231" t="n">
+        <v>38107.65</v>
+      </c>
+      <c r="F3231" t="n">
+        <v>38129.95</v>
+      </c>
+      <c r="G3231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3231" t="n">
+        <v>38096.61532265348</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" s="1" t="n">
+        <v>3230</v>
+      </c>
+      <c r="B3232" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3232" t="n">
+        <v>38130.1</v>
+      </c>
+      <c r="D3232" t="n">
+        <v>38144.3</v>
+      </c>
+      <c r="E3232" t="n">
+        <v>38113</v>
+      </c>
+      <c r="F3232" t="n">
+        <v>38122.85</v>
+      </c>
+      <c r="G3232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3232" t="n">
+        <v>38105.36021510232</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" s="1" t="n">
+        <v>3231</v>
+      </c>
+      <c r="B3233" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3233" t="n">
+        <v>38121.6</v>
+      </c>
+      <c r="D3233" t="n">
+        <v>38124.35</v>
+      </c>
+      <c r="E3233" t="n">
+        <v>38039.45</v>
+      </c>
+      <c r="F3233" t="n">
+        <v>38043.3</v>
+      </c>
+      <c r="G3233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3233" t="n">
+        <v>38084.67347673488</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" s="1" t="n">
+        <v>3232</v>
+      </c>
+      <c r="B3234" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3234" t="n">
+        <v>38038.45</v>
+      </c>
+      <c r="D3234" t="n">
+        <v>38058.9</v>
+      </c>
+      <c r="E3234" t="n">
+        <v>37994.65</v>
+      </c>
+      <c r="F3234" t="n">
+        <v>38005.55</v>
+      </c>
+      <c r="G3234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3234" t="n">
+        <v>38058.29898448993</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" s="1" t="n">
+        <v>3233</v>
+      </c>
+      <c r="B3235" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3235" t="n">
+        <v>38006.85</v>
+      </c>
+      <c r="D3235" t="n">
+        <v>38095.95</v>
+      </c>
+      <c r="E3235" t="n">
+        <v>37991.9</v>
+      </c>
+      <c r="F3235" t="n">
+        <v>38075.8</v>
+      </c>
+      <c r="G3235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3235" t="n">
+        <v>38064.13265632662</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" s="1" t="n">
+        <v>3234</v>
+      </c>
+      <c r="B3236" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3236" t="n">
+        <v>38073.85</v>
+      </c>
+      <c r="D3236" t="n">
+        <v>38108.95</v>
+      </c>
+      <c r="E3236" t="n">
+        <v>38013.6</v>
+      </c>
+      <c r="F3236" t="n">
+        <v>38014.95</v>
+      </c>
+      <c r="G3236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3236" t="n">
+        <v>38047.73843755108</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" s="1" t="n">
+        <v>3235</v>
+      </c>
+      <c r="B3237" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3237" t="n">
+        <v>38015.75</v>
+      </c>
+      <c r="D3237" t="n">
+        <v>38025.2</v>
+      </c>
+      <c r="E3237" t="n">
+        <v>37981.3</v>
+      </c>
+      <c r="F3237" t="n">
+        <v>37994.55</v>
+      </c>
+      <c r="G3237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3237" t="n">
+        <v>38030.00895836739</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" s="1" t="n">
+        <v>3236</v>
+      </c>
+      <c r="B3238" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3238" t="n">
+        <v>37994.85</v>
+      </c>
+      <c r="D3238" t="n">
+        <v>38010.4</v>
+      </c>
+      <c r="E3238" t="n">
+        <v>37954.05</v>
+      </c>
+      <c r="F3238" t="n">
+        <v>37975.25</v>
+      </c>
+      <c r="G3238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3238" t="n">
+        <v>38011.75597224493</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" s="1" t="n">
+        <v>3237</v>
+      </c>
+      <c r="B3239" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3239" t="n">
+        <v>37974.95</v>
+      </c>
+      <c r="D3239" t="n">
+        <v>38027.65</v>
+      </c>
+      <c r="E3239" t="n">
+        <v>37960.85</v>
+      </c>
+      <c r="F3239" t="n">
+        <v>37983.45</v>
+      </c>
+      <c r="G3239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3239" t="n">
+        <v>38002.32064816329</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" s="1" t="n">
+        <v>3238</v>
+      </c>
+      <c r="B3240" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3240" t="n">
+        <v>37986.25</v>
+      </c>
+      <c r="D3240" t="n">
+        <v>37999.15</v>
+      </c>
+      <c r="E3240" t="n">
+        <v>37951.6</v>
+      </c>
+      <c r="F3240" t="n">
+        <v>37958.55</v>
+      </c>
+      <c r="G3240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3240" t="n">
+        <v>37987.73043210886</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" s="1" t="n">
+        <v>3239</v>
+      </c>
+      <c r="B3241" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3241" t="n">
+        <v>37960.1</v>
+      </c>
+      <c r="D3241" t="n">
+        <v>37994.75</v>
+      </c>
+      <c r="E3241" t="n">
+        <v>37951</v>
+      </c>
+      <c r="F3241" t="n">
+        <v>37993.35</v>
+      </c>
+      <c r="G3241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3241" t="n">
+        <v>37989.60362140591</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" s="1" t="n">
+        <v>3240</v>
+      </c>
+      <c r="B3242" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3242" t="n">
+        <v>37995.1</v>
+      </c>
+      <c r="D3242" t="n">
+        <v>38010.9</v>
+      </c>
+      <c r="E3242" t="n">
+        <v>37961.1</v>
+      </c>
+      <c r="F3242" t="n">
+        <v>37963.55</v>
+      </c>
+      <c r="G3242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3242" t="n">
+        <v>37980.91908093727</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" s="1" t="n">
+        <v>3241</v>
+      </c>
+      <c r="B3243" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3243" t="n">
+        <v>37963.55</v>
+      </c>
+      <c r="D3243" t="n">
+        <v>37978.25</v>
+      </c>
+      <c r="E3243" t="n">
+        <v>37950</v>
+      </c>
+      <c r="F3243" t="n">
+        <v>37950</v>
+      </c>
+      <c r="G3243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3243" t="n">
+        <v>37970.61272062485</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" s="1" t="n">
+        <v>3242</v>
+      </c>
+      <c r="B3244" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3244" t="n">
+        <v>37950.5</v>
+      </c>
+      <c r="D3244" t="n">
+        <v>37971.15</v>
+      </c>
+      <c r="E3244" t="n">
+        <v>37908</v>
+      </c>
+      <c r="F3244" t="n">
+        <v>37919.3</v>
+      </c>
+      <c r="G3244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3244" t="n">
+        <v>37953.50848041657</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" s="1" t="n">
+        <v>3243</v>
+      </c>
+      <c r="B3245" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3245" t="n">
+        <v>37916.3</v>
+      </c>
+      <c r="D3245" t="n">
+        <v>37942.45</v>
+      </c>
+      <c r="E3245" t="n">
+        <v>37910</v>
+      </c>
+      <c r="F3245" t="n">
+        <v>37925.45</v>
+      </c>
+      <c r="G3245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3245" t="n">
+        <v>37944.15565361104</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" s="1" t="n">
+        <v>3244</v>
+      </c>
+      <c r="B3246" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3246" t="n">
+        <v>37922.8</v>
+      </c>
+      <c r="D3246" t="n">
+        <v>37972.4</v>
+      </c>
+      <c r="E3246" t="n">
+        <v>37922</v>
+      </c>
+      <c r="F3246" t="n">
+        <v>37943.45</v>
+      </c>
+      <c r="G3246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3246" t="n">
+        <v>37943.9204357407</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" s="1" t="n">
+        <v>3245</v>
+      </c>
+      <c r="B3247" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3247" t="n">
+        <v>37943.75</v>
+      </c>
+      <c r="D3247" t="n">
+        <v>37970</v>
+      </c>
+      <c r="E3247" t="n">
+        <v>37942.2</v>
+      </c>
+      <c r="F3247" t="n">
+        <v>37969.25</v>
+      </c>
+      <c r="G3247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3247" t="n">
+        <v>37952.36362382714</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" s="1" t="n">
+        <v>3246</v>
+      </c>
+      <c r="B3248" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3248" t="n">
+        <v>37970.15</v>
+      </c>
+      <c r="D3248" t="n">
+        <v>38007.4</v>
+      </c>
+      <c r="E3248" t="n">
+        <v>37966.75</v>
+      </c>
+      <c r="F3248" t="n">
+        <v>37998.9</v>
+      </c>
+      <c r="G3248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3248" t="n">
+        <v>37967.87574921809</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" s="1" t="n">
+        <v>3247</v>
+      </c>
+      <c r="B3249" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3249" t="n">
+        <v>38000.35</v>
+      </c>
+      <c r="D3249" t="n">
+        <v>38004.1</v>
+      </c>
+      <c r="E3249" t="n">
+        <v>37912.35</v>
+      </c>
+      <c r="F3249" t="n">
+        <v>37918.05</v>
+      </c>
+      <c r="G3249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3249" t="n">
+        <v>37951.26716614539</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" s="1" t="n">
+        <v>3248</v>
+      </c>
+      <c r="B3250" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3250" t="n">
+        <v>37914.35</v>
+      </c>
+      <c r="D3250" t="n">
+        <v>37923.15</v>
+      </c>
+      <c r="E3250" t="n">
+        <v>37896.6</v>
+      </c>
+      <c r="F3250" t="n">
+        <v>37914.3</v>
+      </c>
+      <c r="G3250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3250" t="n">
+        <v>37938.94477743027</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" s="1" t="n">
+        <v>3249</v>
+      </c>
+      <c r="B3251" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3251" t="n">
+        <v>37913.1</v>
+      </c>
+      <c r="D3251" t="n">
+        <v>37948.8</v>
+      </c>
+      <c r="E3251" t="n">
+        <v>37894.05</v>
+      </c>
+      <c r="F3251" t="n">
+        <v>37927.55</v>
+      </c>
+      <c r="G3251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3251" t="n">
+        <v>37935.14651828685</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" s="1" t="n">
+        <v>3250</v>
+      </c>
+      <c r="B3252" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3252" t="n">
+        <v>37926.2</v>
+      </c>
+      <c r="D3252" t="n">
+        <v>37929.7</v>
+      </c>
+      <c r="E3252" t="n">
+        <v>37897.45</v>
+      </c>
+      <c r="F3252" t="n">
+        <v>37904</v>
+      </c>
+      <c r="G3252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3252" t="n">
+        <v>37924.76434552457</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" s="1" t="n">
+        <v>3251</v>
+      </c>
+      <c r="B3253" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3253" t="n">
+        <v>37903.9</v>
+      </c>
+      <c r="D3253" t="n">
+        <v>37905.95</v>
+      </c>
+      <c r="E3253" t="n">
+        <v>37846.8</v>
+      </c>
+      <c r="F3253" t="n">
+        <v>37865.95</v>
+      </c>
+      <c r="G3253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3253" t="n">
+        <v>37905.15956368305</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" s="1" t="n">
+        <v>3252</v>
+      </c>
+      <c r="B3254" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3254" t="n">
+        <v>37864.45</v>
+      </c>
+      <c r="D3254" t="n">
+        <v>37899.55</v>
+      </c>
+      <c r="E3254" t="n">
+        <v>37852.55</v>
+      </c>
+      <c r="F3254" t="n">
+        <v>37898.5</v>
+      </c>
+      <c r="G3254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3254" t="n">
+        <v>37902.93970912203</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" s="1" t="n">
+        <v>3253</v>
+      </c>
+      <c r="B3255" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3255" t="n">
+        <v>37898.4</v>
+      </c>
+      <c r="D3255" t="n">
+        <v>37899.25</v>
+      </c>
+      <c r="E3255" t="n">
+        <v>37867.55</v>
+      </c>
+      <c r="F3255" t="n">
+        <v>37886.4</v>
+      </c>
+      <c r="G3255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3255" t="n">
+        <v>37897.42647274802</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" s="1" t="n">
+        <v>3254</v>
+      </c>
+      <c r="B3256" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3256" t="n">
+        <v>37886.15</v>
+      </c>
+      <c r="D3256" t="n">
+        <v>37898.55</v>
+      </c>
+      <c r="E3256" t="n">
+        <v>37856.75</v>
+      </c>
+      <c r="F3256" t="n">
+        <v>37892.85</v>
+      </c>
+      <c r="G3256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3256" t="n">
+        <v>37895.90098183201</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" s="1" t="n">
+        <v>3255</v>
+      </c>
+      <c r="B3257" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3257" t="n">
+        <v>37895.4</v>
+      </c>
+      <c r="D3257" t="n">
+        <v>37946.4</v>
+      </c>
+      <c r="E3257" t="n">
+        <v>37893.15</v>
+      </c>
+      <c r="F3257" t="n">
+        <v>37921.95</v>
+      </c>
+      <c r="G3257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3257" t="n">
+        <v>37904.58398788801</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" s="1" t="n">
+        <v>3256</v>
+      </c>
+      <c r="B3258" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3258" t="n">
+        <v>37918.6</v>
+      </c>
+      <c r="D3258" t="n">
+        <v>37938.55</v>
+      </c>
+      <c r="E3258" t="n">
+        <v>37902.75</v>
+      </c>
+      <c r="F3258" t="n">
+        <v>37903.65</v>
+      </c>
+      <c r="G3258" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3258" t="n">
+        <v>37904.272658592</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" s="1" t="n">
+        <v>3257</v>
+      </c>
+      <c r="B3259" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3259" t="n">
+        <v>37902.1</v>
+      </c>
+      <c r="D3259" t="n">
+        <v>37925.25</v>
+      </c>
+      <c r="E3259" t="n">
+        <v>37883.85</v>
+      </c>
+      <c r="F3259" t="n">
+        <v>37915.95</v>
+      </c>
+      <c r="G3259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3259" t="n">
+        <v>37908.165105728</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" s="1" t="n">
+        <v>3258</v>
+      </c>
+      <c r="B3260" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3260" t="n">
+        <v>37916.65</v>
+      </c>
+      <c r="D3260" t="n">
+        <v>37965.7</v>
+      </c>
+      <c r="E3260" t="n">
+        <v>37914.5</v>
+      </c>
+      <c r="F3260" t="n">
+        <v>37955.35</v>
+      </c>
+      <c r="G3260" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3260" t="n">
+        <v>37923.89340381867</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" s="1" t="n">
+        <v>3259</v>
+      </c>
+      <c r="B3261" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3261" t="n">
+        <v>37954.65</v>
+      </c>
+      <c r="D3261" t="n">
+        <v>37978.55</v>
+      </c>
+      <c r="E3261" t="n">
+        <v>37949.8</v>
+      </c>
+      <c r="F3261" t="n">
+        <v>37954.85</v>
+      </c>
+      <c r="G3261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3261" t="n">
+        <v>37934.21226921245</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" s="1" t="n">
+        <v>3260</v>
+      </c>
+      <c r="B3262" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3262" t="n">
+        <v>37955.4</v>
+      </c>
+      <c r="D3262" t="n">
+        <v>37955.4</v>
+      </c>
+      <c r="E3262" t="n">
+        <v>37890.2</v>
+      </c>
+      <c r="F3262" t="n">
+        <v>37921.2</v>
+      </c>
+      <c r="G3262" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3262" t="n">
+        <v>37929.87484614163</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" s="1" t="n">
+        <v>3261</v>
+      </c>
+      <c r="B3263" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3263" t="n">
+        <v>37920.55</v>
+      </c>
+      <c r="D3263" t="n">
+        <v>37955.9</v>
+      </c>
+      <c r="E3263" t="n">
+        <v>37914.5</v>
+      </c>
+      <c r="F3263" t="n">
+        <v>37946.75</v>
+      </c>
+      <c r="G3263" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3263" t="n">
+        <v>37935.49989742776</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" s="1" t="n">
+        <v>3262</v>
+      </c>
+      <c r="B3264" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3264" t="n">
+        <v>37947.35</v>
+      </c>
+      <c r="D3264" t="n">
+        <v>37964.85</v>
+      </c>
+      <c r="E3264" t="n">
+        <v>37939.35</v>
+      </c>
+      <c r="F3264" t="n">
+        <v>37940.55</v>
+      </c>
+      <c r="G3264" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3264" t="n">
+        <v>37937.18326495184</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" s="1" t="n">
+        <v>3263</v>
+      </c>
+      <c r="B3265" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3265" t="n">
+        <v>37941</v>
+      </c>
+      <c r="D3265" t="n">
+        <v>37966.55</v>
+      </c>
+      <c r="E3265" t="n">
+        <v>37923.3</v>
+      </c>
+      <c r="F3265" t="n">
+        <v>37953.55</v>
+      </c>
+      <c r="G3265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3265" t="n">
+        <v>37942.63884330123</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" s="1" t="n">
+        <v>3264</v>
+      </c>
+      <c r="B3266" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3266" t="n">
+        <v>37950.9</v>
+      </c>
+      <c r="D3266" t="n">
+        <v>37984.45</v>
+      </c>
+      <c r="E3266" t="n">
+        <v>37947.8</v>
+      </c>
+      <c r="F3266" t="n">
+        <v>37976.45</v>
+      </c>
+      <c r="G3266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3266" t="n">
+        <v>37953.90922886749</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" s="1" t="n">
+        <v>3265</v>
+      </c>
+      <c r="B3267" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3267" t="n">
+        <v>37975.7</v>
+      </c>
+      <c r="D3267" t="n">
+        <v>38037.35</v>
+      </c>
+      <c r="E3267" t="n">
+        <v>37974.2</v>
+      </c>
+      <c r="F3267" t="n">
+        <v>38030.6</v>
+      </c>
+      <c r="G3267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3267" t="n">
+        <v>37979.47281924499</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" s="1" t="n">
+        <v>3266</v>
+      </c>
+      <c r="B3268" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3268" t="n">
+        <v>38029.2</v>
+      </c>
+      <c r="D3268" t="n">
+        <v>38055.85</v>
+      </c>
+      <c r="E3268" t="n">
+        <v>38025.65</v>
+      </c>
+      <c r="F3268" t="n">
+        <v>38035.6</v>
+      </c>
+      <c r="G3268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3268" t="n">
+        <v>37998.18187949667</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" s="1" t="n">
+        <v>3267</v>
+      </c>
+      <c r="B3269" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3269" t="n">
+        <v>38037.05</v>
+      </c>
+      <c r="D3269" t="n">
+        <v>38039.55</v>
+      </c>
+      <c r="E3269" t="n">
+        <v>37994.9</v>
+      </c>
+      <c r="F3269" t="n">
+        <v>38011.15</v>
+      </c>
+      <c r="G3269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3269" t="n">
+        <v>38002.50458633112</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" s="1" t="n">
+        <v>3268</v>
+      </c>
+      <c r="B3270" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3270" t="n">
+        <v>38000.5</v>
+      </c>
+      <c r="D3270" t="n">
+        <v>38054.45</v>
+      </c>
+      <c r="E3270" t="n">
+        <v>37997.9</v>
+      </c>
+      <c r="F3270" t="n">
+        <v>38045.2</v>
+      </c>
+      <c r="G3270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3270" t="n">
+        <v>38016.73639088741</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" s="1" t="n">
+        <v>3269</v>
+      </c>
+      <c r="B3271" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3271" t="n">
+        <v>38042.4</v>
+      </c>
+      <c r="D3271" t="n">
+        <v>38048.55</v>
+      </c>
+      <c r="E3271" t="n">
+        <v>38001.65</v>
+      </c>
+      <c r="F3271" t="n">
+        <v>38004.2</v>
+      </c>
+      <c r="G3271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3271" t="n">
+        <v>38012.55759392494</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" s="1" t="n">
+        <v>3270</v>
+      </c>
+      <c r="B3272" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3272" t="n">
+        <v>38002.8</v>
+      </c>
+      <c r="D3272" t="n">
+        <v>38002.8</v>
+      </c>
+      <c r="E3272" t="n">
+        <v>37925.95</v>
+      </c>
+      <c r="F3272" t="n">
+        <v>37956.25</v>
+      </c>
+      <c r="G3272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3272" t="n">
+        <v>37993.78839594996</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" s="1" t="n">
+        <v>3271</v>
+      </c>
+      <c r="B3273" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3273" t="n">
+        <v>37956.1</v>
+      </c>
+      <c r="D3273" t="n">
+        <v>37965.35</v>
+      </c>
+      <c r="E3273" t="n">
+        <v>37918.45</v>
+      </c>
+      <c r="F3273" t="n">
+        <v>37922.35</v>
+      </c>
+      <c r="G3273" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3273" t="n">
+        <v>37969.97559729997</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" s="1" t="n">
+        <v>3272</v>
+      </c>
+      <c r="B3274" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3274" t="n">
+        <v>37922.45</v>
+      </c>
+      <c r="D3274" t="n">
+        <v>37949.95</v>
+      </c>
+      <c r="E3274" t="n">
+        <v>37890.2</v>
+      </c>
+      <c r="F3274" t="n">
+        <v>37893.1</v>
+      </c>
+      <c r="G3274" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3274" t="n">
+        <v>37944.35039819998</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" s="1" t="n">
+        <v>3273</v>
+      </c>
+      <c r="B3275" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3275" t="n">
+        <v>37891.25</v>
+      </c>
+      <c r="D3275" t="n">
+        <v>37919.5</v>
+      </c>
+      <c r="E3275" t="n">
+        <v>37869.95</v>
+      </c>
+      <c r="F3275" t="n">
+        <v>37919.35</v>
+      </c>
+      <c r="G3275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3275" t="n">
+        <v>37936.01693213332</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" s="1" t="n">
+        <v>3274</v>
+      </c>
+      <c r="B3276" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3276" t="n">
+        <v>37914.5</v>
+      </c>
+      <c r="D3276" t="n">
+        <v>37914.5</v>
+      </c>
+      <c r="E3276" t="n">
+        <v>37842.3</v>
+      </c>
+      <c r="F3276" t="n">
+        <v>37847.15</v>
+      </c>
+      <c r="G3276" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3276" t="n">
+        <v>37906.39462142222</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" s="1" t="n">
+        <v>3275</v>
+      </c>
+      <c r="B3277" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3277" t="n">
+        <v>37846.05</v>
+      </c>
+      <c r="D3277" t="n">
+        <v>37859.75</v>
+      </c>
+      <c r="E3277" t="n">
+        <v>37765.8</v>
+      </c>
+      <c r="F3277" t="n">
+        <v>37775.7</v>
+      </c>
+      <c r="G3277" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3277" t="n">
+        <v>37862.82974761481</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" s="1" t="n">
+        <v>3276</v>
+      </c>
+      <c r="B3278" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3278" t="n">
+        <v>37780.9</v>
+      </c>
+      <c r="D3278" t="n">
+        <v>37780.9</v>
+      </c>
+      <c r="E3278" t="n">
+        <v>37647.15</v>
+      </c>
+      <c r="F3278" t="n">
+        <v>37684.7</v>
+      </c>
+      <c r="G3278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3278" t="n">
+        <v>37803.45316507654</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" s="1" t="n">
+        <v>3277</v>
+      </c>
+      <c r="B3279" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3279" t="n">
+        <v>37688.25</v>
+      </c>
+      <c r="D3279" t="n">
+        <v>37733.7</v>
+      </c>
+      <c r="E3279" t="n">
+        <v>37616</v>
+      </c>
+      <c r="F3279" t="n">
+        <v>37661.5</v>
+      </c>
+      <c r="G3279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3279" t="n">
+        <v>37756.13544338437</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" s="1" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B3280" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3280" t="n">
+        <v>37662.45</v>
+      </c>
+      <c r="D3280" t="n">
+        <v>37711.8</v>
+      </c>
+      <c r="E3280" t="n">
+        <v>37646.8</v>
+      </c>
+      <c r="F3280" t="n">
+        <v>37649</v>
+      </c>
+      <c r="G3280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3280" t="n">
+        <v>37720.42362892292</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" s="1" t="n">
+        <v>3279</v>
+      </c>
+      <c r="B3281" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3281" t="n">
+        <v>37648.45</v>
+      </c>
+      <c r="D3281" t="n">
+        <v>37708.5</v>
+      </c>
+      <c r="E3281" t="n">
+        <v>37634.3</v>
+      </c>
+      <c r="F3281" t="n">
+        <v>37705.05</v>
+      </c>
+      <c r="G3281" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3281" t="n">
+        <v>37715.29908594862</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" s="1" t="n">
+        <v>3280</v>
+      </c>
+      <c r="B3282" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3282" t="n">
+        <v>37704.6</v>
+      </c>
+      <c r="D3282" t="n">
+        <v>37708.8</v>
+      </c>
+      <c r="E3282" t="n">
+        <v>37662.7</v>
+      </c>
+      <c r="F3282" t="n">
+        <v>37689.6</v>
+      </c>
+      <c r="G3282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3282" t="n">
+        <v>37706.73272396575</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" s="1" t="n">
+        <v>3281</v>
+      </c>
+      <c r="B3283" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3283" t="n">
+        <v>37683.85</v>
+      </c>
+      <c r="D3283" t="n">
+        <v>37690.2</v>
+      </c>
+      <c r="E3283" t="n">
+        <v>37628.2</v>
+      </c>
+      <c r="F3283" t="n">
+        <v>37628.8</v>
+      </c>
+      <c r="G3283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3283" t="n">
+        <v>37680.7551493105</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" s="1" t="n">
+        <v>3282</v>
+      </c>
+      <c r="B3284" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3284" t="n">
+        <v>37628.05</v>
+      </c>
+      <c r="D3284" t="n">
+        <v>37667.05</v>
+      </c>
+      <c r="E3284" t="n">
+        <v>37593.15</v>
+      </c>
+      <c r="F3284" t="n">
+        <v>37649</v>
+      </c>
+      <c r="G3284" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3284" t="n">
+        <v>37670.17009954034</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" s="1" t="n">
+        <v>3283</v>
+      </c>
+      <c r="B3285" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3285" t="n">
+        <v>37645.8</v>
+      </c>
+      <c r="D3285" t="n">
+        <v>37713.05</v>
+      </c>
+      <c r="E3285" t="n">
+        <v>37640.45</v>
+      </c>
+      <c r="F3285" t="n">
+        <v>37689.6</v>
+      </c>
+      <c r="G3285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3285" t="n">
+        <v>37676.64673302689</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" s="1" t="n">
+        <v>3284</v>
+      </c>
+      <c r="B3286" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3286" t="n">
+        <v>37681.8</v>
+      </c>
+      <c r="D3286" t="n">
+        <v>37730.2</v>
+      </c>
+      <c r="E3286" t="n">
+        <v>37676.6</v>
+      </c>
+      <c r="F3286" t="n">
+        <v>37698.5</v>
+      </c>
+      <c r="G3286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3286" t="n">
+        <v>37683.93115535127</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" s="1" t="n">
+        <v>3285</v>
+      </c>
+      <c r="B3287" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3287" t="n">
+        <v>37696.25</v>
+      </c>
+      <c r="D3287" t="n">
+        <v>37697.25</v>
+      </c>
+      <c r="E3287" t="n">
+        <v>37663.75</v>
+      </c>
+      <c r="F3287" t="n">
+        <v>37679.7</v>
+      </c>
+      <c r="G3287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3287" t="n">
+        <v>37682.52077023418</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" s="1" t="n">
+        <v>3286</v>
+      </c>
+      <c r="B3288" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3288" t="n">
+        <v>37679.85</v>
+      </c>
+      <c r="D3288" t="n">
+        <v>37740.15</v>
+      </c>
+      <c r="E3288" t="n">
+        <v>37669.35</v>
+      </c>
+      <c r="F3288" t="n">
+        <v>37729.35</v>
+      </c>
+      <c r="G3288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3288" t="n">
+        <v>37698.13051348946</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" s="1" t="n">
+        <v>3287</v>
+      </c>
+      <c r="B3289" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="C3289" t="n">
+        <v>37727.2</v>
+      </c>
+      <c r="D3289" t="n">
+        <v>37763.45</v>
+      </c>
+      <c r="E3289" t="n">
+        <v>37724.65</v>
+      </c>
+      <c r="F3289" t="n">
+        <v>37746.1</v>
+      </c>
+      <c r="G3289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3289" t="n">
+        <v>37714.12034232631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
